--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6228F322-48CC-4F91-A0D3-B57E17496252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5471EFBE-588C-4B27-9685-DCEB57E862D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="3915" windowWidth="29865" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6255" yWindow="4710" windowWidth="29865" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,74 @@
   </si>
   <si>
     <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScoreDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,11 +179,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,20 +507,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -454,150 +530,285 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
+      <c r="B2" s="3">
+        <v>4E+19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
+      <c r="B3" s="3">
+        <v>2E+20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>100000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
+      <c r="B4" s="3">
+        <v>1E+21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
+      <c r="B5" s="3">
+        <v>5E+21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>10000000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
+      <c r="B6" s="3">
+        <v>3E+22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>100000000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
+      <c r="B7" s="3">
+        <v>9.9999999999999992E+22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>1000000000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
+      <c r="B8" s="3">
+        <v>4.9999999999999999E+23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>10000000000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
+      <c r="B9" s="3">
+        <v>2.9999999999999999E+24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D9" s="1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>100000000000</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
+      <c r="B10" s="3">
+        <v>2.0000000000000002E+25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>100000000000</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
+      <c r="B11" s="3">
+        <v>8.0000000000000007E+25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>500000</v>
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4.0000000000000002E+26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2E+27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4.0000000000000001E+27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.9999999999999995E+27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8.0000000000000001E+27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9.9999999999999996E+27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5471EFBE-588C-4B27-9685-DCEB57E862D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B182AD-890F-419F-BFD5-6AF6C7E246DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="4710" windowWidth="29865" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>4000경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3양</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -811,6 +815,23 @@
         <v>80</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3.0000000000000001E+28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B182AD-890F-419F-BFD5-6AF6C7E246DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79356D3-2D4A-4220-9F78-62DFC1AC0B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7050" yWindow="5430" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,10 @@
   </si>
   <si>
     <t>3양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000양</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,11 +515,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -832,6 +836,23 @@
         <v>85</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1.9999999999999999E+31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79356D3-2D4A-4220-9F78-62DFC1AC0B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B696B3B-BDF7-4001-9D91-DA2A173A2381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="5430" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2775" yWindow="1275" windowWidth="26715" windowHeight="14640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,26 @@
   </si>
   <si>
     <t>2000양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,11 +535,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -853,6 +873,91 @@
         <v>90</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1.0000000000000001E+32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9.9999999999999995E+33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>4.9999999999999998E+34</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1E+36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2.0000000000000001E+36</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B696B3B-BDF7-4001-9D91-DA2A173A2381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A34EAA4-5EAF-457A-BF4E-734805ACB27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="1275" windowWidth="26715" windowHeight="14640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>2간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,11 +539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -958,6 +962,23 @@
         <v>115</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4.0000000000000002E+36</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A34EAA4-5EAF-457A-BF4E-734805ACB27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A31E5F5-9737-4DE0-9668-E428933147CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,38 @@
   </si>
   <si>
     <t>4간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,11 +571,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -979,6 +1011,142 @@
         <v>120</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4.9999999999999998E+36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6E+36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>8.0000000000000003E+36</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>9.9999999999999995E+36</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="1">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1.5000000000000001E+37</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1.9999999999999999E+37</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2.4999999999999999E+37</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3.0000000000000002E+37</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="1">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A31E5F5-9737-4DE0-9668-E428933147CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4CCDFA-C499-4656-9C74-87624ECEAC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6615" yWindow="630" windowWidth="23340" windowHeight="13395" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,26 @@
   </si>
   <si>
     <t>8간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,11 +591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1147,6 +1167,91 @@
         <v>160</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>4.9999999999999999E+37</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="1">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>9.9999999999999998E+37</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="1">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1.5000000000000001E+38</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="1">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2E+38</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="1">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>3.0000000000000001E+38</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="1">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4CCDFA-C499-4656-9C74-87624ECEAC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FB2E8D-E5A2-4ACC-B5D6-30A046FAC548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="630" windowWidth="23340" windowHeight="13395" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,18 @@
   <si>
     <t>300간</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400간</t>
+  </si>
+  <si>
+    <t>500간</t>
+  </si>
+  <si>
+    <t>600간</t>
+  </si>
+  <si>
+    <t>700간</t>
   </si>
 </sst>
 </file>
@@ -591,11 +603,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1252,6 +1264,74 @@
         <v>185</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>3.9999999999999999E+38</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="1">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4.9999999999999997E+38</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="1">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>6.0000000000000002E+38</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="1">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>7E+38</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="1">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FB2E8D-E5A2-4ACC-B5D6-30A046FAC548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA267B4-C485-4BBD-9E7D-DF0A2E67E037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,22 @@
   </si>
   <si>
     <t>700간</t>
+  </si>
+  <si>
+    <t>900간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -603,11 +619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1332,6 +1348,74 @@
         <v>205</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <v>8.9999999999999996E+38</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="1">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1.1000000000000001E+39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="1">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1.3E+39</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="1">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.5E+39</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="1">
+        <v>20</v>
+      </c>
+      <c r="E46" s="1">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA267B4-C485-4BBD-9E7D-DF0A2E67E037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD6F695-3F07-468A-9A87-04417E93B931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>1500간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,11 +631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1416,6 +1428,57 @@
         <v>225</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.9999999999999999E+39</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="1">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2.5000000000000001E+39</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="1">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <v>3E+39</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="1">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD6F695-3F07-468A-9A87-04417E93B931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4E2F3B-410A-43CD-B2C7-FB6296910AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,34 @@
   </si>
   <si>
     <t>2000간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1정5000간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,11 +659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1479,6 +1507,125 @@
         <v>240</v>
       </c>
     </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5.0000000000000002E+39</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="1">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <v>7.0000000000000003E+39</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="1">
+        <v>20</v>
+      </c>
+      <c r="E51" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1E+40</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="1">
+        <v>20</v>
+      </c>
+      <c r="E52" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1.5000000000000001E+40</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="1">
+        <v>20</v>
+      </c>
+      <c r="E53" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="1">
+        <v>20</v>
+      </c>
+      <c r="E54" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <v>3.0000000000000002E+40</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="1">
+        <v>20</v>
+      </c>
+      <c r="E55" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>4.0000000000000001E+40</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="1">
+        <v>20</v>
+      </c>
+      <c r="E56" s="1">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4E2F3B-410A-43CD-B2C7-FB6296910AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BA5473-6AE2-4DB4-AD7E-1742EED58640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4290" yWindow="3750" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,18 @@
   </si>
   <si>
     <t>1정5000간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,11 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1626,6 +1638,57 @@
         <v>275</v>
       </c>
     </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <v>6.0000000000000004E+40</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="1">
+        <v>20</v>
+      </c>
+      <c r="E57" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>8.0000000000000002E+40</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="1">
+        <v>20</v>
+      </c>
+      <c r="E58" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <v>1E+41</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="1">
+        <v>20</v>
+      </c>
+      <c r="E59" s="1">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BA5473-6AE2-4DB4-AD7E-1742EED58640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146EADDB-75EE-40C5-83B2-3EDB4AFCAA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="3750" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1290" yWindow="1350" windowWidth="35610" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +281,38 @@
   </si>
   <si>
     <t>10정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,11 +703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1689,6 +1721,142 @@
         <v>290</v>
       </c>
     </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1.4999999999999999E+41</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="1">
+        <v>20</v>
+      </c>
+      <c r="E60" s="1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2E+41</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="1">
+        <v>20</v>
+      </c>
+      <c r="E61" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2.9999999999999998E+41</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="1">
+        <v>20</v>
+      </c>
+      <c r="E62" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3">
+        <v>5.0000000000000002E+41</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="1">
+        <v>20</v>
+      </c>
+      <c r="E63" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <v>6.9999999999999998E+41</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="1">
+        <v>20</v>
+      </c>
+      <c r="E64" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1E+42</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="1">
+        <v>20</v>
+      </c>
+      <c r="E65" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1.5000000000000001E+42</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="1">
+        <v>20</v>
+      </c>
+      <c r="E66" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2.0000000000000001E+42</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="1">
+        <v>20</v>
+      </c>
+      <c r="E67" s="1">
+        <v>330</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146EADDB-75EE-40C5-83B2-3EDB4AFCAA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0A6B34-875D-4B70-9600-17EFCBF77F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="1350" windowWidth="35610" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,14 @@
   </si>
   <si>
     <t>200정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,11 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1857,6 +1865,40 @@
         <v>330</v>
       </c>
     </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2.5E+42</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="1">
+        <v>20</v>
+      </c>
+      <c r="E68" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3.0000000000000003E+42</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="1">
+        <v>20</v>
+      </c>
+      <c r="E69" s="1">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0A6B34-875D-4B70-9600-17EFCBF77F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37F6C02-7BC1-491C-8A2D-7B13F336B5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +321,30 @@
   </si>
   <si>
     <t>300정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1700정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,11 +735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1899,6 +1923,108 @@
         <v>340</v>
       </c>
     </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>5.0000000000000001E+42</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="1">
+        <v>20</v>
+      </c>
+      <c r="E70" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <v>7.0000000000000005E+42</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="1">
+        <v>20</v>
+      </c>
+      <c r="E71" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>1E+43</v>
+      </c>
+      <c r="C72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="1">
+        <v>20</v>
+      </c>
+      <c r="E72" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3">
+        <v>1.3000000000000001E+43</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="1">
+        <v>20</v>
+      </c>
+      <c r="E73" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1.7000000000000001E+43</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="1">
+        <v>20</v>
+      </c>
+      <c r="E74" s="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2.1E+43</v>
+      </c>
+      <c r="C75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="1">
+        <v>20</v>
+      </c>
+      <c r="E75" s="1">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37F6C02-7BC1-491C-8A2D-7B13F336B5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4495BA8-C09E-4D7B-A3DF-7C02E4CE71A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="645" yWindow="2175" windowWidth="37680" windowHeight="16185" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -345,6 +345,50 @@
   </si>
   <si>
     <t>2100정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,11 +779,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2025,6 +2069,193 @@
         <v>370</v>
       </c>
     </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <v>3.0000000000000002E+43</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="1">
+        <v>20</v>
+      </c>
+      <c r="E76" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3">
+        <v>4.0000000000000001E+43</v>
+      </c>
+      <c r="C77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="1">
+        <v>20</v>
+      </c>
+      <c r="E77" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <v>6.0000000000000003E+43</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="1">
+        <v>20</v>
+      </c>
+      <c r="E78" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3">
+        <v>8.0000000000000001E+43</v>
+      </c>
+      <c r="C79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="1">
+        <v>20</v>
+      </c>
+      <c r="E79" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1.0000000000000001E+44</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="1">
+        <v>20</v>
+      </c>
+      <c r="E80" s="1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2.0000000000000002E+44</v>
+      </c>
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="1">
+        <v>20</v>
+      </c>
+      <c r="E81" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <v>4.0000000000000004E+44</v>
+      </c>
+      <c r="C82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="1">
+        <v>20</v>
+      </c>
+      <c r="E82" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3">
+        <v>5.9999999999999997E+44</v>
+      </c>
+      <c r="C83" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="1">
+        <v>20</v>
+      </c>
+      <c r="E83" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <v>8.0000000000000007E+44</v>
+      </c>
+      <c r="C84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="1">
+        <v>20</v>
+      </c>
+      <c r="E84" s="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3">
+        <v>9.9999999999999993E+44</v>
+      </c>
+      <c r="C85" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="1">
+        <v>20</v>
+      </c>
+      <c r="E85" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1.3E+45</v>
+      </c>
+      <c r="C86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="1">
+        <v>20</v>
+      </c>
+      <c r="E86" s="1">
+        <v>425</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4495BA8-C09E-4D7B-A3DF-7C02E4CE71A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4592CD-C111-4FEA-9479-B350F5B4FD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="2175" windowWidth="37680" windowHeight="16185" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +389,38 @@
   </si>
   <si>
     <t>13재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,11 +811,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2256,6 +2288,142 @@
         <v>425</v>
       </c>
     </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1.6000000000000001E+45</v>
+      </c>
+      <c r="C87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="1">
+        <v>20</v>
+      </c>
+      <c r="E87" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1.9999999999999999E+45</v>
+      </c>
+      <c r="C88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="1">
+        <v>20</v>
+      </c>
+      <c r="E88" s="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3">
+        <v>3.0000000000000001E+45</v>
+      </c>
+      <c r="C89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="1">
+        <v>20</v>
+      </c>
+      <c r="E89" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <v>3.9999999999999997E+45</v>
+      </c>
+      <c r="C90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="1">
+        <v>20</v>
+      </c>
+      <c r="E90" s="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3">
+        <v>5E+45</v>
+      </c>
+      <c r="C91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" s="1">
+        <v>20</v>
+      </c>
+      <c r="E91" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <v>7.0000000000000005E+45</v>
+      </c>
+      <c r="C92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="1">
+        <v>20</v>
+      </c>
+      <c r="E92" s="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3">
+        <v>8.9999999999999997E+45</v>
+      </c>
+      <c r="C93" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" s="1">
+        <v>20</v>
+      </c>
+      <c r="E93" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1.1E+46</v>
+      </c>
+      <c r="C94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="1">
+        <v>20</v>
+      </c>
+      <c r="E94" s="1">
+        <v>465</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4592CD-C111-4FEA-9479-B350F5B4FD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC365CFE-A8BF-4E5C-8AD5-DC8D6FDE527F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +421,46 @@
   </si>
   <si>
     <t>110재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>380재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>460재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>550재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>650재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,11 +851,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2424,6 +2464,176 @@
         <v>465</v>
       </c>
     </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1.5000000000000001E+46</v>
+      </c>
+      <c r="C95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="1">
+        <v>20</v>
+      </c>
+      <c r="E95" s="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2E+46</v>
+      </c>
+      <c r="C96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="1">
+        <v>20</v>
+      </c>
+      <c r="E96" s="1">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3">
+        <v>3.0999999999999998E+46</v>
+      </c>
+      <c r="C97" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" s="1">
+        <v>20</v>
+      </c>
+      <c r="E97" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <v>3.7999999999999999E+46</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="1">
+        <v>20</v>
+      </c>
+      <c r="E98" s="1">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3">
+        <v>4.6000000000000001E+46</v>
+      </c>
+      <c r="C99" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="1">
+        <v>20</v>
+      </c>
+      <c r="E99" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
+        <v>5.4999999999999998E+46</v>
+      </c>
+      <c r="C100" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" s="1">
+        <v>20</v>
+      </c>
+      <c r="E100" s="1">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3">
+        <v>6.5000000000000001E+46</v>
+      </c>
+      <c r="C101" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" s="1">
+        <v>20</v>
+      </c>
+      <c r="E101" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3">
+        <v>7.9999999999999999E+46</v>
+      </c>
+      <c r="C102" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" s="1">
+        <v>20</v>
+      </c>
+      <c r="E102" s="1">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1E+47</v>
+      </c>
+      <c r="C103" t="s">
+        <v>100</v>
+      </c>
+      <c r="D103" s="1">
+        <v>20</v>
+      </c>
+      <c r="E103" s="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1.3E+47</v>
+      </c>
+      <c r="C104" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" s="1">
+        <v>20</v>
+      </c>
+      <c r="E104" s="1">
+        <v>515</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC365CFE-A8BF-4E5C-8AD5-DC8D6FDE527F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C0126B-7CA2-449D-808B-C894C63B3C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,6 +461,26 @@
   </si>
   <si>
     <t>1300재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1700재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,11 +871,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2634,6 +2654,91 @@
         <v>515</v>
       </c>
     </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1.6999999999999999E+47</v>
+      </c>
+      <c r="C105" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="1">
+        <v>20</v>
+      </c>
+      <c r="E105" s="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2.1999999999999999E+47</v>
+      </c>
+      <c r="C106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D106" s="1">
+        <v>20</v>
+      </c>
+      <c r="E106" s="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3">
+        <v>3.0000000000000001E+47</v>
+      </c>
+      <c r="C107" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="1">
+        <v>20</v>
+      </c>
+      <c r="E107" s="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3">
+        <v>4.0000000000000002E+47</v>
+      </c>
+      <c r="C108" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" s="1">
+        <v>20</v>
+      </c>
+      <c r="E108" s="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3">
+        <v>5.0000000000000002E+47</v>
+      </c>
+      <c r="C109" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109" s="1">
+        <v>20</v>
+      </c>
+      <c r="E109" s="1">
+        <v>540</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C0126B-7CA2-449D-808B-C894C63B3C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AD9A24-10DA-40C7-AC83-AAF34DDDBDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,50 @@
   </si>
   <si>
     <t>3000재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1극2000재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1극5000재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2극 5000재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7극</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +532,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,8 +556,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +575,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -535,15 +592,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,8 +616,12 @@
     <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -871,11 +935,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2723,7 +2787,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+      <c r="A109" s="4">
         <v>107</v>
       </c>
       <c r="B109" s="3">
@@ -2737,6 +2801,193 @@
       </c>
       <c r="E109" s="1">
         <v>540</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3">
+        <v>7.0000000000000003E+47</v>
+      </c>
+      <c r="C110" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" s="1">
+        <v>20</v>
+      </c>
+      <c r="E110" s="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3">
+        <v>8.9999999999999996E+47</v>
+      </c>
+      <c r="C111" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111" s="1">
+        <v>20</v>
+      </c>
+      <c r="E111" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1.2000000000000001E+48</v>
+      </c>
+      <c r="C112" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" s="1">
+        <v>20</v>
+      </c>
+      <c r="E112" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1.5E+48</v>
+      </c>
+      <c r="C113" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113" s="1">
+        <v>20</v>
+      </c>
+      <c r="E113" s="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2.0000000000000001E+48</v>
+      </c>
+      <c r="C114" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" s="1">
+        <v>20</v>
+      </c>
+      <c r="E114" s="1">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="3">
+        <v>2.4999999999999999E+48</v>
+      </c>
+      <c r="C115" t="s">
+        <v>119</v>
+      </c>
+      <c r="D115" s="1">
+        <v>20</v>
+      </c>
+      <c r="E115" s="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3">
+        <v>3E+48</v>
+      </c>
+      <c r="C116" t="s">
+        <v>120</v>
+      </c>
+      <c r="D116" s="1">
+        <v>20</v>
+      </c>
+      <c r="E116" s="1">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="3">
+        <v>4.0000000000000002E+48</v>
+      </c>
+      <c r="C117" t="s">
+        <v>121</v>
+      </c>
+      <c r="D117" s="1">
+        <v>20</v>
+      </c>
+      <c r="E117" s="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3">
+        <v>4.9999999999999997E+48</v>
+      </c>
+      <c r="C118" t="s">
+        <v>122</v>
+      </c>
+      <c r="D118" s="1">
+        <v>20</v>
+      </c>
+      <c r="E118" s="1">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="3">
+        <v>6.9999999999999995E+48</v>
+      </c>
+      <c r="C119" t="s">
+        <v>123</v>
+      </c>
+      <c r="D119" s="1">
+        <v>20</v>
+      </c>
+      <c r="E119" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3">
+        <v>9.9999999999999995E+48</v>
+      </c>
+      <c r="C120" t="s">
+        <v>113</v>
+      </c>
+      <c r="D120" s="1">
+        <v>20</v>
+      </c>
+      <c r="E120" s="1">
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AD9A24-10DA-40C7-AC83-AAF34DDDBDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90032686-7E0E-49AB-9EF1-299A0D8400A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,6 +525,46 @@
   </si>
   <si>
     <t>7극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250극</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,11 +975,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2990,6 +3030,176 @@
         <v>595</v>
       </c>
     </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="3">
+        <v>1.9999999999999999E+49</v>
+      </c>
+      <c r="C121" t="s">
+        <v>129</v>
+      </c>
+      <c r="D121" s="1">
+        <v>20</v>
+      </c>
+      <c r="E121" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3">
+        <v>3.9999999999999998E+49</v>
+      </c>
+      <c r="C122" t="s">
+        <v>130</v>
+      </c>
+      <c r="D122" s="1">
+        <v>20</v>
+      </c>
+      <c r="E122" s="1">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3">
+        <v>6.9999999999999995E+49</v>
+      </c>
+      <c r="C123" t="s">
+        <v>128</v>
+      </c>
+      <c r="D123" s="1">
+        <v>20</v>
+      </c>
+      <c r="E123" s="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1.0000000000000001E+50</v>
+      </c>
+      <c r="C124" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124" s="1">
+        <v>20</v>
+      </c>
+      <c r="E124" s="1">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1.3000000000000001E+50</v>
+      </c>
+      <c r="C125" t="s">
+        <v>131</v>
+      </c>
+      <c r="D125" s="1">
+        <v>20</v>
+      </c>
+      <c r="E125" s="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1.5999999999999999E+50</v>
+      </c>
+      <c r="C126" t="s">
+        <v>132</v>
+      </c>
+      <c r="D126" s="1">
+        <v>20</v>
+      </c>
+      <c r="E126" s="1">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="3">
+        <v>2.0000000000000002E+50</v>
+      </c>
+      <c r="C127" t="s">
+        <v>126</v>
+      </c>
+      <c r="D127" s="1">
+        <v>20</v>
+      </c>
+      <c r="E127" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3">
+        <v>2.5E+50</v>
+      </c>
+      <c r="C128" t="s">
+        <v>133</v>
+      </c>
+      <c r="D128" s="1">
+        <v>20</v>
+      </c>
+      <c r="E128" s="1">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="3">
+        <v>2.9999999999999998E+50</v>
+      </c>
+      <c r="C129" t="s">
+        <v>125</v>
+      </c>
+      <c r="D129" s="1">
+        <v>20</v>
+      </c>
+      <c r="E129" s="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3">
+        <v>3.5000000000000001E+50</v>
+      </c>
+      <c r="C130" t="s">
+        <v>124</v>
+      </c>
+      <c r="D130" s="1">
+        <v>20</v>
+      </c>
+      <c r="E130" s="1">
+        <v>645</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90032686-7E0E-49AB-9EF1-299A0D8400A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617BCECA-D078-4516-B945-52CB67C3EC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +565,30 @@
   </si>
   <si>
     <t>250극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000극</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +596,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,8 +628,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,6 +654,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -632,7 +669,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,8 +679,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,8 +699,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -975,11 +1022,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3183,21 +3230,123 @@
         <v>640</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
+    <row r="130" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="5">
         <v>128</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="6">
         <v>3.5000000000000001E+50</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D130" s="1">
-        <v>20</v>
-      </c>
-      <c r="E130" s="1">
+      <c r="D130" s="5">
+        <v>20</v>
+      </c>
+      <c r="E130" s="5">
         <v>645</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="3">
+        <v>5E+50</v>
+      </c>
+      <c r="C131" t="s">
+        <v>134</v>
+      </c>
+      <c r="D131" s="1">
+        <v>20</v>
+      </c>
+      <c r="E131" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="3">
+        <v>7.0000000000000001E+50</v>
+      </c>
+      <c r="C132" t="s">
+        <v>135</v>
+      </c>
+      <c r="D132" s="1">
+        <v>20</v>
+      </c>
+      <c r="E132" s="1">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="3">
+        <v>9.9999999999999999E+50</v>
+      </c>
+      <c r="C133" t="s">
+        <v>136</v>
+      </c>
+      <c r="D133" s="1">
+        <v>20</v>
+      </c>
+      <c r="E133" s="1">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3">
+        <v>1.5E+51</v>
+      </c>
+      <c r="C134" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134" s="1">
+        <v>20</v>
+      </c>
+      <c r="E134" s="1">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="3">
+        <v>2E+51</v>
+      </c>
+      <c r="C135" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" s="1">
+        <v>20</v>
+      </c>
+      <c r="E135" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3">
+        <v>3E+51</v>
+      </c>
+      <c r="C136" t="s">
+        <v>139</v>
+      </c>
+      <c r="D136" s="1">
+        <v>20</v>
+      </c>
+      <c r="E136" s="1">
+        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617BCECA-D078-4516-B945-52CB67C3EC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9720701D-CF3F-4FB1-A8DF-62094354FECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,6 +589,30 @@
   </si>
   <si>
     <t>3000극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1항 3000극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1항 6000극</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1022,11 +1046,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J128" sqref="J128"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3349,6 +3373,108 @@
         <v>675</v>
       </c>
     </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="3">
+        <v>4E+51</v>
+      </c>
+      <c r="C137" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" s="1">
+        <v>20</v>
+      </c>
+      <c r="E137" s="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3">
+        <v>6E+51</v>
+      </c>
+      <c r="C138" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138" s="1">
+        <v>20</v>
+      </c>
+      <c r="E138" s="1">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="3">
+        <v>7.9999999999999999E+51</v>
+      </c>
+      <c r="C139" t="s">
+        <v>142</v>
+      </c>
+      <c r="D139" s="1">
+        <v>20</v>
+      </c>
+      <c r="E139" s="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3">
+        <v>9.9999999999999999E+51</v>
+      </c>
+      <c r="C140" t="s">
+        <v>143</v>
+      </c>
+      <c r="D140" s="1">
+        <v>20</v>
+      </c>
+      <c r="E140" s="1">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1.3E+52</v>
+      </c>
+      <c r="C141" t="s">
+        <v>144</v>
+      </c>
+      <c r="D141" s="1">
+        <v>20</v>
+      </c>
+      <c r="E141" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1.6E+52</v>
+      </c>
+      <c r="C142" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142" s="1">
+        <v>20</v>
+      </c>
+      <c r="E142" s="1">
+        <v>705</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9720701D-CF3F-4FB1-A8DF-62094354FECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F92CB8E-1051-49D5-8593-5528E509653E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -613,6 +613,26 @@
   </si>
   <si>
     <t>1항 6000극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2항 5000극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1046,11 +1066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E128" sqref="E128"/>
+      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3475,6 +3495,91 @@
         <v>705</v>
       </c>
     </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="3">
+        <v>2E+52</v>
+      </c>
+      <c r="C143" t="s">
+        <v>146</v>
+      </c>
+      <c r="D143" s="1">
+        <v>20</v>
+      </c>
+      <c r="E143" s="1">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="3">
+        <v>2.5E+52</v>
+      </c>
+      <c r="C144" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144" s="1">
+        <v>20</v>
+      </c>
+      <c r="E144" s="1">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="3">
+        <v>3E+52</v>
+      </c>
+      <c r="C145" t="s">
+        <v>148</v>
+      </c>
+      <c r="D145" s="1">
+        <v>20</v>
+      </c>
+      <c r="E145" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="3">
+        <v>4E+52</v>
+      </c>
+      <c r="C146" t="s">
+        <v>149</v>
+      </c>
+      <c r="D146" s="1">
+        <v>20</v>
+      </c>
+      <c r="E146" s="1">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="3">
+        <v>5E+52</v>
+      </c>
+      <c r="C147" t="s">
+        <v>150</v>
+      </c>
+      <c r="D147" s="1">
+        <v>20</v>
+      </c>
+      <c r="E147" s="1">
+        <v>730</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F92CB8E-1051-49D5-8593-5528E509653E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C8045E-4B3B-4D84-A96B-070470CE5EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,6 +633,34 @@
   </si>
   <si>
     <t>5항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1066,11 +1094,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3580,6 +3608,125 @@
         <v>730</v>
       </c>
     </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="3">
+        <v>7E+52</v>
+      </c>
+      <c r="C148" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148" s="1">
+        <v>20</v>
+      </c>
+      <c r="E148" s="1">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="3">
+        <v>8.9999999999999999E+52</v>
+      </c>
+      <c r="C149" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149" s="1">
+        <v>20</v>
+      </c>
+      <c r="E149" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1.2E+53</v>
+      </c>
+      <c r="C150" t="s">
+        <v>153</v>
+      </c>
+      <c r="D150" s="1">
+        <v>20</v>
+      </c>
+      <c r="E150" s="1">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1.5E+53</v>
+      </c>
+      <c r="C151" t="s">
+        <v>154</v>
+      </c>
+      <c r="D151" s="1">
+        <v>20</v>
+      </c>
+      <c r="E151" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="3">
+        <v>2E+53</v>
+      </c>
+      <c r="C152" t="s">
+        <v>155</v>
+      </c>
+      <c r="D152" s="1">
+        <v>20</v>
+      </c>
+      <c r="E152" s="1">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="3">
+        <v>2.5000000000000002E+53</v>
+      </c>
+      <c r="C153" t="s">
+        <v>156</v>
+      </c>
+      <c r="D153" s="1">
+        <v>20</v>
+      </c>
+      <c r="E153" s="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="3">
+        <v>3E+53</v>
+      </c>
+      <c r="C154" t="s">
+        <v>157</v>
+      </c>
+      <c r="D154" s="1">
+        <v>20</v>
+      </c>
+      <c r="E154" s="1">
+        <v>765</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C8045E-4B3B-4D84-A96B-070470CE5EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBC2F04-5360-4260-B905-B15AF20B8BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,6 +661,34 @@
   </si>
   <si>
     <t>30항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,11 +1122,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E149" sqref="E149"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3711,7 +3739,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
+      <c r="A154" s="4">
         <v>152</v>
       </c>
       <c r="B154" s="3">
@@ -3725,6 +3753,125 @@
       </c>
       <c r="E154" s="1">
         <v>765</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="3">
+        <v>5.0000000000000004E+53</v>
+      </c>
+      <c r="C155" t="s">
+        <v>158</v>
+      </c>
+      <c r="D155" s="1">
+        <v>20</v>
+      </c>
+      <c r="E155" s="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
+        <v>154</v>
+      </c>
+      <c r="B156" s="3">
+        <v>7.0000000000000004E+53</v>
+      </c>
+      <c r="C156" t="s">
+        <v>159</v>
+      </c>
+      <c r="D156" s="1">
+        <v>20</v>
+      </c>
+      <c r="E156" s="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="3">
+        <v>1.0000000000000001E+54</v>
+      </c>
+      <c r="C157" t="s">
+        <v>160</v>
+      </c>
+      <c r="D157" s="1">
+        <v>20</v>
+      </c>
+      <c r="E157" s="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="4">
+        <v>156</v>
+      </c>
+      <c r="B158" s="3">
+        <v>1.4999999999999999E+54</v>
+      </c>
+      <c r="C158" t="s">
+        <v>161</v>
+      </c>
+      <c r="D158" s="1">
+        <v>20</v>
+      </c>
+      <c r="E158" s="1">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="3">
+        <v>2.5E+54</v>
+      </c>
+      <c r="C159" t="s">
+        <v>162</v>
+      </c>
+      <c r="D159" s="1">
+        <v>20</v>
+      </c>
+      <c r="E159" s="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
+        <v>158</v>
+      </c>
+      <c r="B160" s="3">
+        <v>3.5000000000000001E+54</v>
+      </c>
+      <c r="C160" t="s">
+        <v>163</v>
+      </c>
+      <c r="D160" s="1">
+        <v>20</v>
+      </c>
+      <c r="E160" s="1">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="3">
+        <v>5.0000000000000001E+54</v>
+      </c>
+      <c r="C161" t="s">
+        <v>164</v>
+      </c>
+      <c r="D161" s="1">
+        <v>20</v>
+      </c>
+      <c r="E161" s="1">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBC2F04-5360-4260-B905-B15AF20B8BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458F023D-7EB5-4B70-8E96-62EE81AE4179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -689,6 +689,34 @@
   </si>
   <si>
     <t>500항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1600항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,11 +1150,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B160" sqref="B160"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3874,6 +3902,125 @@
         <v>800</v>
       </c>
     </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="3">
+        <v>7.0000000000000002E+54</v>
+      </c>
+      <c r="C162" t="s">
+        <v>165</v>
+      </c>
+      <c r="D162" s="1">
+        <v>20</v>
+      </c>
+      <c r="E162" s="1">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
+        <v>161</v>
+      </c>
+      <c r="B163" s="3">
+        <v>1E+55</v>
+      </c>
+      <c r="C163" t="s">
+        <v>166</v>
+      </c>
+      <c r="D163" s="1">
+        <v>20</v>
+      </c>
+      <c r="E163" s="1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="3">
+        <v>1.3E+55</v>
+      </c>
+      <c r="C164" t="s">
+        <v>167</v>
+      </c>
+      <c r="D164" s="1">
+        <v>20</v>
+      </c>
+      <c r="E164" s="1">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="3">
+        <v>1.6000000000000001E+55</v>
+      </c>
+      <c r="C165" t="s">
+        <v>168</v>
+      </c>
+      <c r="D165" s="1">
+        <v>20</v>
+      </c>
+      <c r="E165" s="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
+        <v>164</v>
+      </c>
+      <c r="B166" s="3">
+        <v>2E+55</v>
+      </c>
+      <c r="C166" t="s">
+        <v>169</v>
+      </c>
+      <c r="D166" s="1">
+        <v>20</v>
+      </c>
+      <c r="E166" s="1">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="3">
+        <v>2.5000000000000002E+55</v>
+      </c>
+      <c r="C167" t="s">
+        <v>170</v>
+      </c>
+      <c r="D167" s="1">
+        <v>20</v>
+      </c>
+      <c r="E167" s="1">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="4">
+        <v>166</v>
+      </c>
+      <c r="B168" s="3">
+        <v>3.0000000000000002E+55</v>
+      </c>
+      <c r="C168" t="s">
+        <v>171</v>
+      </c>
+      <c r="D168" s="1">
+        <v>20</v>
+      </c>
+      <c r="E168" s="1">
+        <v>835</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458F023D-7EB5-4B70-8E96-62EE81AE4179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6396FE-5DC0-4AE4-9ABC-F7E68B4264A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,6 +717,26 @@
   </si>
   <si>
     <t>3000항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1아2000항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1150,11 +1170,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E167" sqref="E167"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4021,6 +4041,91 @@
         <v>835</v>
       </c>
     </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="4">
+        <v>167</v>
+      </c>
+      <c r="B169" s="3">
+        <v>4E+55</v>
+      </c>
+      <c r="C169" t="s">
+        <v>172</v>
+      </c>
+      <c r="D169" s="1">
+        <v>20</v>
+      </c>
+      <c r="E169" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="3">
+        <v>5.0000000000000005E+55</v>
+      </c>
+      <c r="C170" t="s">
+        <v>173</v>
+      </c>
+      <c r="D170" s="1">
+        <v>20</v>
+      </c>
+      <c r="E170" s="1">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="4">
+        <v>169</v>
+      </c>
+      <c r="B171" s="3">
+        <v>7.0000000000000002E+55</v>
+      </c>
+      <c r="C171" t="s">
+        <v>174</v>
+      </c>
+      <c r="D171" s="1">
+        <v>20</v>
+      </c>
+      <c r="E171" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="4">
+        <v>170</v>
+      </c>
+      <c r="B172" s="3">
+        <v>9E+55</v>
+      </c>
+      <c r="C172" t="s">
+        <v>175</v>
+      </c>
+      <c r="D172" s="1">
+        <v>20</v>
+      </c>
+      <c r="E172" s="1">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="4">
+        <v>171</v>
+      </c>
+      <c r="B173" s="3">
+        <v>1.2000000000000001E+56</v>
+      </c>
+      <c r="C173" t="s">
+        <v>176</v>
+      </c>
+      <c r="D173" s="1">
+        <v>20</v>
+      </c>
+      <c r="E173" s="1">
+        <v>860</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6396FE-5DC0-4AE4-9ABC-F7E68B4264A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C149CA-650C-4692-BE38-77C7364AC786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -737,6 +737,46 @@
   </si>
   <si>
     <t>1아2000항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1170,11 +1210,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4126,6 +4166,176 @@
         <v>860</v>
       </c>
     </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="3">
+        <v>3.0000000000000001E+56</v>
+      </c>
+      <c r="C174" t="s">
+        <v>177</v>
+      </c>
+      <c r="D174" s="1">
+        <v>20</v>
+      </c>
+      <c r="E174" s="1">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="4">
+        <v>173</v>
+      </c>
+      <c r="B175" s="3">
+        <v>5.0000000000000002E+56</v>
+      </c>
+      <c r="C175" t="s">
+        <v>178</v>
+      </c>
+      <c r="D175" s="1">
+        <v>20</v>
+      </c>
+      <c r="E175" s="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="4">
+        <v>174</v>
+      </c>
+      <c r="B176" s="3">
+        <v>7E+56</v>
+      </c>
+      <c r="C176" t="s">
+        <v>182</v>
+      </c>
+      <c r="D176" s="1">
+        <v>20</v>
+      </c>
+      <c r="E176" s="1">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="4">
+        <v>175</v>
+      </c>
+      <c r="B177" s="3">
+        <v>1E+57</v>
+      </c>
+      <c r="C177" t="s">
+        <v>179</v>
+      </c>
+      <c r="D177" s="1">
+        <v>20</v>
+      </c>
+      <c r="E177" s="1">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="3">
+        <v>1.5E+57</v>
+      </c>
+      <c r="C178" t="s">
+        <v>183</v>
+      </c>
+      <c r="D178" s="1">
+        <v>20</v>
+      </c>
+      <c r="E178" s="1">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="4">
+        <v>177</v>
+      </c>
+      <c r="B179" s="3">
+        <v>2.0000000000000001E+57</v>
+      </c>
+      <c r="C179" t="s">
+        <v>180</v>
+      </c>
+      <c r="D179" s="1">
+        <v>20</v>
+      </c>
+      <c r="E179" s="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="4">
+        <v>178</v>
+      </c>
+      <c r="B180" s="3">
+        <v>3E+57</v>
+      </c>
+      <c r="C180" t="s">
+        <v>184</v>
+      </c>
+      <c r="D180" s="1">
+        <v>20</v>
+      </c>
+      <c r="E180" s="1">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="4">
+        <v>179</v>
+      </c>
+      <c r="B181" s="3">
+        <v>4.9999999999999997E+57</v>
+      </c>
+      <c r="C181" t="s">
+        <v>185</v>
+      </c>
+      <c r="D181" s="1">
+        <v>20</v>
+      </c>
+      <c r="E181" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="3">
+        <v>6.9999999999999995E+57</v>
+      </c>
+      <c r="C182" t="s">
+        <v>186</v>
+      </c>
+      <c r="D182" s="1">
+        <v>20</v>
+      </c>
+      <c r="E182" s="1">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="4">
+        <v>181</v>
+      </c>
+      <c r="B183" s="3">
+        <v>9.9999999999999994E+57</v>
+      </c>
+      <c r="C183" t="s">
+        <v>181</v>
+      </c>
+      <c r="D183" s="1">
+        <v>20</v>
+      </c>
+      <c r="E183" s="1">
+        <v>910</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C149CA-650C-4692-BE38-77C7364AC786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9964AC2-487A-4342-8182-A8280FDFDC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -777,6 +777,34 @@
   </si>
   <si>
     <t>70아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1210,11 +1238,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4336,6 +4364,125 @@
         <v>910</v>
       </c>
     </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="4">
+        <v>182</v>
+      </c>
+      <c r="B184" s="3">
+        <v>1.5000000000000001E+58</v>
+      </c>
+      <c r="C184" t="s">
+        <v>187</v>
+      </c>
+      <c r="D184" s="1">
+        <v>20</v>
+      </c>
+      <c r="E184" s="1">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="4">
+        <v>183</v>
+      </c>
+      <c r="B185" s="3">
+        <v>1.9999999999999999E+58</v>
+      </c>
+      <c r="C185" t="s">
+        <v>188</v>
+      </c>
+      <c r="D185" s="1">
+        <v>20</v>
+      </c>
+      <c r="E185" s="1">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="3">
+        <v>3.0000000000000002E+58</v>
+      </c>
+      <c r="C186" t="s">
+        <v>189</v>
+      </c>
+      <c r="D186" s="1">
+        <v>20</v>
+      </c>
+      <c r="E186" s="1">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="4">
+        <v>185</v>
+      </c>
+      <c r="B187" s="3">
+        <v>3.9999999999999998E+58</v>
+      </c>
+      <c r="C187" t="s">
+        <v>190</v>
+      </c>
+      <c r="D187" s="1">
+        <v>20</v>
+      </c>
+      <c r="E187" s="1">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="4">
+        <v>186</v>
+      </c>
+      <c r="B188" s="3">
+        <v>6.0000000000000005E+58</v>
+      </c>
+      <c r="C188" t="s">
+        <v>191</v>
+      </c>
+      <c r="D188" s="1">
+        <v>20</v>
+      </c>
+      <c r="E188" s="1">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="4">
+        <v>187</v>
+      </c>
+      <c r="B189" s="3">
+        <v>7.9999999999999996E+58</v>
+      </c>
+      <c r="C189" t="s">
+        <v>192</v>
+      </c>
+      <c r="D189" s="1">
+        <v>20</v>
+      </c>
+      <c r="E189" s="1">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="3">
+        <v>9.9999999999999997E+58</v>
+      </c>
+      <c r="C190" t="s">
+        <v>193</v>
+      </c>
+      <c r="D190" s="1">
+        <v>20</v>
+      </c>
+      <c r="E190" s="1">
+        <v>945</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9964AC2-487A-4342-8182-A8280FDFDC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6954212D-40B1-422E-AB8E-0D5D64393B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -805,6 +805,22 @@
   </si>
   <si>
     <t>1000아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1238,11 +1254,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D183" sqref="D183"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4483,6 +4499,74 @@
         <v>945</v>
       </c>
     </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="3">
+        <v>1.5E+59</v>
+      </c>
+      <c r="C191" t="s">
+        <v>194</v>
+      </c>
+      <c r="D191" s="1">
+        <v>20</v>
+      </c>
+      <c r="E191" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="4">
+        <v>190</v>
+      </c>
+      <c r="B192" s="3">
+        <v>1.9999999999999999E+59</v>
+      </c>
+      <c r="C192" t="s">
+        <v>195</v>
+      </c>
+      <c r="D192" s="1">
+        <v>20</v>
+      </c>
+      <c r="E192" s="1">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="4">
+        <v>191</v>
+      </c>
+      <c r="B193" s="3">
+        <v>2.4999999999999999E+59</v>
+      </c>
+      <c r="C193" t="s">
+        <v>196</v>
+      </c>
+      <c r="D193" s="1">
+        <v>20</v>
+      </c>
+      <c r="E193" s="1">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="4">
+        <v>192</v>
+      </c>
+      <c r="B194" s="3">
+        <v>3E+59</v>
+      </c>
+      <c r="C194" t="s">
+        <v>197</v>
+      </c>
+      <c r="D194" s="1">
+        <v>20</v>
+      </c>
+      <c r="E194" s="1">
+        <v>965</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6954212D-40B1-422E-AB8E-0D5D64393B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6BE486-3E4C-4718-891F-CA1D0F57B7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -821,6 +821,26 @@
   </si>
   <si>
     <t>3000아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1254,11 +1274,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C194" sqref="C194"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4567,6 +4587,91 @@
         <v>965</v>
       </c>
     </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="3">
+        <v>3.5000000000000002E+59</v>
+      </c>
+      <c r="C195" t="s">
+        <v>198</v>
+      </c>
+      <c r="D195" s="1">
+        <v>20</v>
+      </c>
+      <c r="E195" s="1">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="4">
+        <v>194</v>
+      </c>
+      <c r="B196" s="3">
+        <v>3.9999999999999999E+59</v>
+      </c>
+      <c r="C196" t="s">
+        <v>199</v>
+      </c>
+      <c r="D196" s="1">
+        <v>20</v>
+      </c>
+      <c r="E196" s="1">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="4">
+        <v>195</v>
+      </c>
+      <c r="B197" s="3">
+        <v>4.9999999999999997E+59</v>
+      </c>
+      <c r="C197" t="s">
+        <v>200</v>
+      </c>
+      <c r="D197" s="1">
+        <v>20</v>
+      </c>
+      <c r="E197" s="1">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="4">
+        <v>196</v>
+      </c>
+      <c r="B198" s="3">
+        <v>6.0000000000000001E+59</v>
+      </c>
+      <c r="C198" t="s">
+        <v>201</v>
+      </c>
+      <c r="D198" s="1">
+        <v>20</v>
+      </c>
+      <c r="E198" s="1">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" s="3">
+        <v>7.9999999999999998E+59</v>
+      </c>
+      <c r="C199" t="s">
+        <v>202</v>
+      </c>
+      <c r="D199" s="1">
+        <v>20</v>
+      </c>
+      <c r="E199" s="1">
+        <v>990</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6BE486-3E4C-4718-891F-CA1D0F57B7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0DD0E5-74AC-4E3B-AA34-DF94D1BB656C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -841,6 +841,10 @@
   </si>
   <si>
     <t>8000아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1274,11 +1278,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E182" sqref="E182"/>
+      <selection pane="bottomLeft" activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4672,6 +4676,23 @@
         <v>990</v>
       </c>
     </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="4">
+        <v>198</v>
+      </c>
+      <c r="B200" s="3">
+        <v>9.9999999999999995E+59</v>
+      </c>
+      <c r="C200" t="s">
+        <v>203</v>
+      </c>
+      <c r="D200" s="1">
+        <v>20</v>
+      </c>
+      <c r="E200" s="1">
+        <v>995</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0DD0E5-74AC-4E3B-AA34-DF94D1BB656C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C71829D-A148-42AC-B52C-6E6671638EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -845,6 +845,22 @@
   </si>
   <si>
     <t>1나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1278,11 +1294,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E200" sqref="E200"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4693,6 +4709,74 @@
         <v>995</v>
       </c>
     </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="4">
+        <v>199</v>
+      </c>
+      <c r="B201" s="3">
+        <v>1.9999999999999999E+60</v>
+      </c>
+      <c r="C201" t="s">
+        <v>204</v>
+      </c>
+      <c r="D201" s="1">
+        <v>20</v>
+      </c>
+      <c r="E201" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="4">
+        <v>200</v>
+      </c>
+      <c r="B202" s="3">
+        <v>3.9999999999999998E+60</v>
+      </c>
+      <c r="C202" t="s">
+        <v>206</v>
+      </c>
+      <c r="D202" s="1">
+        <v>20</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="3">
+        <v>5.9999999999999997E+60</v>
+      </c>
+      <c r="C203" t="s">
+        <v>207</v>
+      </c>
+      <c r="D203" s="1">
+        <v>20</v>
+      </c>
+      <c r="E203" s="1">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="4">
+        <v>202</v>
+      </c>
+      <c r="B204" s="3">
+        <v>9.9999999999999995E+60</v>
+      </c>
+      <c r="C204" t="s">
+        <v>205</v>
+      </c>
+      <c r="D204" s="1">
+        <v>20</v>
+      </c>
+      <c r="E204" s="1">
+        <v>1015</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C71829D-A148-42AC-B52C-6E6671638EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557297F8-C615-4E48-81E9-98AE8BA8D8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -861,6 +861,22 @@
   </si>
   <si>
     <t>6나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1294,11 +1310,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C204" sqref="C204"/>
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4777,6 +4793,74 @@
         <v>1015</v>
       </c>
     </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="4">
+        <v>203</v>
+      </c>
+      <c r="B205" s="3">
+        <v>1.5E+61</v>
+      </c>
+      <c r="C205" t="s">
+        <v>208</v>
+      </c>
+      <c r="D205" s="1">
+        <v>20</v>
+      </c>
+      <c r="E205" s="1">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="4">
+        <v>204</v>
+      </c>
+      <c r="B206" s="3">
+        <v>1.9999999999999999E+61</v>
+      </c>
+      <c r="C206" t="s">
+        <v>209</v>
+      </c>
+      <c r="D206" s="1">
+        <v>20</v>
+      </c>
+      <c r="E206" s="1">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="3">
+        <v>2.5000000000000001E+61</v>
+      </c>
+      <c r="C207" t="s">
+        <v>210</v>
+      </c>
+      <c r="D207" s="1">
+        <v>20</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="4">
+        <v>206</v>
+      </c>
+      <c r="B208" s="3">
+        <v>3E+61</v>
+      </c>
+      <c r="C208" t="s">
+        <v>211</v>
+      </c>
+      <c r="D208" s="1">
+        <v>20</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1035</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557297F8-C615-4E48-81E9-98AE8BA8D8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E11F1C-57C5-4174-BEB0-8F818D9E4275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="9270" yWindow="4680" windowWidth="23595" windowHeight="10995" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -877,6 +877,46 @@
   </si>
   <si>
     <t>30나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1310,11 +1350,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:E218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C208" sqref="C208"/>
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E214" sqref="E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4861,6 +4901,176 @@
         <v>1035</v>
       </c>
     </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="4">
+        <v>207</v>
+      </c>
+      <c r="B209" s="3">
+        <v>5.0000000000000002E+61</v>
+      </c>
+      <c r="C209" t="s">
+        <v>212</v>
+      </c>
+      <c r="D209" s="1">
+        <v>20</v>
+      </c>
+      <c r="E209" s="1">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="3">
+        <v>7.0000000000000004E+61</v>
+      </c>
+      <c r="C210" t="s">
+        <v>213</v>
+      </c>
+      <c r="D210" s="1">
+        <v>20</v>
+      </c>
+      <c r="E210" s="1">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="4">
+        <v>209</v>
+      </c>
+      <c r="B211" s="3">
+        <v>1E+62</v>
+      </c>
+      <c r="C211" t="s">
+        <v>214</v>
+      </c>
+      <c r="D211" s="1">
+        <v>20</v>
+      </c>
+      <c r="E211" s="1">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="4">
+        <v>210</v>
+      </c>
+      <c r="B212" s="3">
+        <v>1.5E+62</v>
+      </c>
+      <c r="C212" t="s">
+        <v>215</v>
+      </c>
+      <c r="D212" s="1">
+        <v>20</v>
+      </c>
+      <c r="E212" s="1">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="3">
+        <v>2.0000000000000001E+62</v>
+      </c>
+      <c r="C213" t="s">
+        <v>216</v>
+      </c>
+      <c r="D213" s="1">
+        <v>20</v>
+      </c>
+      <c r="E213" s="1">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="4">
+        <v>212</v>
+      </c>
+      <c r="B214" s="3">
+        <v>3E+62</v>
+      </c>
+      <c r="C214" t="s">
+        <v>217</v>
+      </c>
+      <c r="D214" s="1">
+        <v>20</v>
+      </c>
+      <c r="E214" s="1">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="4">
+        <v>213</v>
+      </c>
+      <c r="B215" s="3">
+        <v>4.0000000000000001E+62</v>
+      </c>
+      <c r="C215" t="s">
+        <v>218</v>
+      </c>
+      <c r="D215" s="1">
+        <v>20</v>
+      </c>
+      <c r="E215" s="1">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="3">
+        <v>5.0000000000000003E+62</v>
+      </c>
+      <c r="C216" t="s">
+        <v>219</v>
+      </c>
+      <c r="D216" s="1">
+        <v>20</v>
+      </c>
+      <c r="E216" s="1">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="4">
+        <v>215</v>
+      </c>
+      <c r="B217" s="3">
+        <v>6.9999999999999997E+62</v>
+      </c>
+      <c r="C217" t="s">
+        <v>220</v>
+      </c>
+      <c r="D217" s="1">
+        <v>20</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="4">
+        <v>216</v>
+      </c>
+      <c r="B218" s="3">
+        <v>1.0000000000000001E+63</v>
+      </c>
+      <c r="C218" t="s">
+        <v>221</v>
+      </c>
+      <c r="D218" s="1">
+        <v>20</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1085</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E11F1C-57C5-4174-BEB0-8F818D9E4275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C6D891-4525-4DC4-8154-E9C67A6AB1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="4680" windowWidth="23595" windowHeight="10995" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -917,6 +917,10 @@
   </si>
   <si>
     <t>1000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1350,11 +1354,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E218"/>
+  <dimension ref="A1:E219"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E214" sqref="E214"/>
+      <selection pane="bottomLeft" activeCell="E217" sqref="E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5071,6 +5075,23 @@
         <v>1085</v>
       </c>
     </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="4">
+        <v>217</v>
+      </c>
+      <c r="B219" s="3">
+        <v>1.5E+63</v>
+      </c>
+      <c r="C219" t="s">
+        <v>222</v>
+      </c>
+      <c r="D219" s="1">
+        <v>20</v>
+      </c>
+      <c r="E219" s="1">
+        <v>1090</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C6D891-4525-4DC4-8154-E9C67A6AB1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115158EB-0281-4F71-A7F1-9A153E666B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -921,6 +921,26 @@
   </si>
   <si>
     <t>1500나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1354,11 +1374,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E219"/>
+  <dimension ref="A1:E224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E217" sqref="E217"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5092,6 +5112,91 @@
         <v>1090</v>
       </c>
     </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="4">
+        <v>218</v>
+      </c>
+      <c r="B220" s="3">
+        <v>2.0000000000000001E+63</v>
+      </c>
+      <c r="C220" t="s">
+        <v>223</v>
+      </c>
+      <c r="D220" s="1">
+        <v>20</v>
+      </c>
+      <c r="E220" s="1">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="4">
+        <v>219</v>
+      </c>
+      <c r="B221" s="3">
+        <v>3E+63</v>
+      </c>
+      <c r="C221" t="s">
+        <v>224</v>
+      </c>
+      <c r="D221" s="1">
+        <v>20</v>
+      </c>
+      <c r="E221" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="4">
+        <v>220</v>
+      </c>
+      <c r="B222" s="3">
+        <v>5.0000000000000001E+63</v>
+      </c>
+      <c r="C222" t="s">
+        <v>225</v>
+      </c>
+      <c r="D222" s="1">
+        <v>20</v>
+      </c>
+      <c r="E222" s="1">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="4">
+        <v>221</v>
+      </c>
+      <c r="B223" s="3">
+        <v>7.0000000000000006E+63</v>
+      </c>
+      <c r="C223" t="s">
+        <v>226</v>
+      </c>
+      <c r="D223" s="1">
+        <v>20</v>
+      </c>
+      <c r="E223" s="1">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="4">
+        <v>222</v>
+      </c>
+      <c r="B224" s="3">
+        <v>1E+64</v>
+      </c>
+      <c r="C224" t="s">
+        <v>227</v>
+      </c>
+      <c r="D224" s="1">
+        <v>20</v>
+      </c>
+      <c r="E224" s="1">
+        <v>1115</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115158EB-0281-4F71-A7F1-9A153E666B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE89EFCB-7C22-40A3-AE4D-ABD4A32EA500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -941,6 +941,30 @@
   </si>
   <si>
     <t>1불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1불 5000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2불 5000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1374,11 +1398,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E224"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B224" sqref="B224"/>
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D227" sqref="D227:E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5197,6 +5221,108 @@
         <v>1115</v>
       </c>
     </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="4">
+        <v>223</v>
+      </c>
+      <c r="B225" s="3">
+        <v>1.5000000000000001E+64</v>
+      </c>
+      <c r="C225" t="s">
+        <v>228</v>
+      </c>
+      <c r="D225" s="1">
+        <v>20</v>
+      </c>
+      <c r="E225" s="1">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="4">
+        <v>224</v>
+      </c>
+      <c r="B226" s="3">
+        <v>2E+64</v>
+      </c>
+      <c r="C226" t="s">
+        <v>229</v>
+      </c>
+      <c r="D226" s="1">
+        <v>20</v>
+      </c>
+      <c r="E226" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="4">
+        <v>225</v>
+      </c>
+      <c r="B227" s="3">
+        <v>2.5E+64</v>
+      </c>
+      <c r="C227" t="s">
+        <v>230</v>
+      </c>
+      <c r="D227" s="1">
+        <v>20</v>
+      </c>
+      <c r="E227" s="1">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="4">
+        <v>226</v>
+      </c>
+      <c r="B228" s="3">
+        <v>3.0000000000000002E+64</v>
+      </c>
+      <c r="C228" t="s">
+        <v>231</v>
+      </c>
+      <c r="D228" s="1">
+        <v>20</v>
+      </c>
+      <c r="E228" s="1">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="4">
+        <v>227</v>
+      </c>
+      <c r="B229" s="3">
+        <v>4.0000000000000001E+64</v>
+      </c>
+      <c r="C229" t="s">
+        <v>232</v>
+      </c>
+      <c r="D229" s="1">
+        <v>20</v>
+      </c>
+      <c r="E229" s="1">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="4">
+        <v>228</v>
+      </c>
+      <c r="B230" s="3">
+        <v>5E+64</v>
+      </c>
+      <c r="C230" t="s">
+        <v>233</v>
+      </c>
+      <c r="D230" s="1">
+        <v>20</v>
+      </c>
+      <c r="E230" s="1">
+        <v>1145</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE89EFCB-7C22-40A3-AE4D-ABD4A32EA500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FA92DF-0493-41C1-89BE-6A236B0736B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -965,6 +965,34 @@
   </si>
   <si>
     <t>5불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1398,11 +1426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:E237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D227" sqref="D227:E230"/>
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C234" sqref="C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5323,6 +5351,125 @@
         <v>1145</v>
       </c>
     </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="4">
+        <v>229</v>
+      </c>
+      <c r="B231" s="3">
+        <v>6.9999999999999997E+64</v>
+      </c>
+      <c r="C231" t="s">
+        <v>234</v>
+      </c>
+      <c r="D231" s="1">
+        <v>20</v>
+      </c>
+      <c r="E231" s="1">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="4">
+        <v>230</v>
+      </c>
+      <c r="B232" s="3">
+        <v>9.9999999999999999E+64</v>
+      </c>
+      <c r="C232" t="s">
+        <v>235</v>
+      </c>
+      <c r="D232" s="1">
+        <v>20</v>
+      </c>
+      <c r="E232" s="1">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="4">
+        <v>231</v>
+      </c>
+      <c r="B233" s="3">
+        <v>1.5000000000000001E+65</v>
+      </c>
+      <c r="C233" t="s">
+        <v>236</v>
+      </c>
+      <c r="D233" s="1">
+        <v>20</v>
+      </c>
+      <c r="E233" s="1">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="4">
+        <v>232</v>
+      </c>
+      <c r="B234" s="3">
+        <v>2E+65</v>
+      </c>
+      <c r="C234" t="s">
+        <v>237</v>
+      </c>
+      <c r="D234" s="1">
+        <v>20</v>
+      </c>
+      <c r="E234" s="1">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="4">
+        <v>233</v>
+      </c>
+      <c r="B235" s="3">
+        <v>3.0000000000000002E+65</v>
+      </c>
+      <c r="C235" t="s">
+        <v>238</v>
+      </c>
+      <c r="D235" s="1">
+        <v>20</v>
+      </c>
+      <c r="E235" s="1">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="4">
+        <v>234</v>
+      </c>
+      <c r="B236" s="3">
+        <v>4E+65</v>
+      </c>
+      <c r="C236" t="s">
+        <v>239</v>
+      </c>
+      <c r="D236" s="1">
+        <v>20</v>
+      </c>
+      <c r="E236" s="1">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="4">
+        <v>235</v>
+      </c>
+      <c r="B237" s="3">
+        <v>4.9999999999999997E+65</v>
+      </c>
+      <c r="C237" t="s">
+        <v>240</v>
+      </c>
+      <c r="D237" s="1">
+        <v>20</v>
+      </c>
+      <c r="E237" s="1">
+        <v>1180</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FA92DF-0493-41C1-89BE-6A236B0736B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF53765-E276-487E-BDF0-825153502AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,6 +993,14 @@
   </si>
   <si>
     <t>50불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1426,11 +1434,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E237"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C234" sqref="C234"/>
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C239" sqref="C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5470,6 +5478,40 @@
         <v>1180</v>
       </c>
     </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="4">
+        <v>236</v>
+      </c>
+      <c r="B238" s="3">
+        <v>7.0000000000000002E+65</v>
+      </c>
+      <c r="C238" t="s">
+        <v>241</v>
+      </c>
+      <c r="D238" s="1">
+        <v>20</v>
+      </c>
+      <c r="E238" s="1">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="4">
+        <v>237</v>
+      </c>
+      <c r="B239" s="3">
+        <v>9.9999999999999995E+65</v>
+      </c>
+      <c r="C239" t="s">
+        <v>242</v>
+      </c>
+      <c r="D239" s="1">
+        <v>20</v>
+      </c>
+      <c r="E239" s="1">
+        <v>1190</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF53765-E276-487E-BDF0-825153502AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFDFB3A-F2F4-424C-8277-7621CB22A5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1001,6 +1001,18 @@
   </si>
   <si>
     <t>100불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1434,11 +1446,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E239"/>
+  <dimension ref="A1:E242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C239" sqref="C239"/>
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D242" sqref="D242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5512,6 +5524,57 @@
         <v>1190</v>
       </c>
     </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="4">
+        <v>238</v>
+      </c>
+      <c r="B240" s="3">
+        <v>1.3000000000000001E+66</v>
+      </c>
+      <c r="C240" t="s">
+        <v>243</v>
+      </c>
+      <c r="D240" s="1">
+        <v>20</v>
+      </c>
+      <c r="E240" s="1">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="4">
+        <v>239</v>
+      </c>
+      <c r="B241" s="3">
+        <v>1.6E+66</v>
+      </c>
+      <c r="C241" t="s">
+        <v>244</v>
+      </c>
+      <c r="D241" s="1">
+        <v>20</v>
+      </c>
+      <c r="E241" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="4">
+        <v>240</v>
+      </c>
+      <c r="B242" s="3">
+        <v>1.9999999999999999E+66</v>
+      </c>
+      <c r="C242" t="s">
+        <v>245</v>
+      </c>
+      <c r="D242" s="1">
+        <v>20</v>
+      </c>
+      <c r="E242" s="1">
+        <v>1205</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFDFB3A-F2F4-424C-8277-7621CB22A5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C9A0F8-BF2E-4944-8AD6-358B847C4F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1013,6 +1013,38 @@
   </si>
   <si>
     <t>200불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1446,11 +1478,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E242"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D242" sqref="D242"/>
+      <selection pane="bottomLeft" activeCell="B247" sqref="B247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5575,6 +5607,142 @@
         <v>1205</v>
       </c>
     </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="4">
+        <v>241</v>
+      </c>
+      <c r="B243" s="3">
+        <v>2.5E+66</v>
+      </c>
+      <c r="C243" t="s">
+        <v>246</v>
+      </c>
+      <c r="D243" s="1">
+        <v>20</v>
+      </c>
+      <c r="E243" s="1">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="4">
+        <v>242</v>
+      </c>
+      <c r="B244" s="3">
+        <v>3E+66</v>
+      </c>
+      <c r="C244" t="s">
+        <v>247</v>
+      </c>
+      <c r="D244" s="1">
+        <v>20</v>
+      </c>
+      <c r="E244" s="1">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="4">
+        <v>243</v>
+      </c>
+      <c r="B245" s="3">
+        <v>3.4999999999999997E+66</v>
+      </c>
+      <c r="C245" t="s">
+        <v>248</v>
+      </c>
+      <c r="D245" s="1">
+        <v>20</v>
+      </c>
+      <c r="E245" s="1">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="4">
+        <v>244</v>
+      </c>
+      <c r="B246" s="3">
+        <v>3.9999999999999998E+66</v>
+      </c>
+      <c r="C246" t="s">
+        <v>249</v>
+      </c>
+      <c r="D246" s="1">
+        <v>20</v>
+      </c>
+      <c r="E246" s="1">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="4">
+        <v>245</v>
+      </c>
+      <c r="B247" s="3">
+        <v>4.9999999999999999E+66</v>
+      </c>
+      <c r="C247" t="s">
+        <v>250</v>
+      </c>
+      <c r="D247" s="1">
+        <v>20</v>
+      </c>
+      <c r="E247" s="1">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="4">
+        <v>246</v>
+      </c>
+      <c r="B248" s="3">
+        <v>6E+66</v>
+      </c>
+      <c r="C248" t="s">
+        <v>251</v>
+      </c>
+      <c r="D248" s="1">
+        <v>20</v>
+      </c>
+      <c r="E248" s="1">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="4">
+        <v>247</v>
+      </c>
+      <c r="B249" s="3">
+        <v>7.9999999999999996E+66</v>
+      </c>
+      <c r="C249" t="s">
+        <v>252</v>
+      </c>
+      <c r="D249" s="1">
+        <v>20</v>
+      </c>
+      <c r="E249" s="1">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="4">
+        <v>248</v>
+      </c>
+      <c r="B250" s="3">
+        <v>9.9999999999999998E+66</v>
+      </c>
+      <c r="C250" t="s">
+        <v>253</v>
+      </c>
+      <c r="D250" s="1">
+        <v>20</v>
+      </c>
+      <c r="E250" s="1">
+        <v>1245</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C9A0F8-BF2E-4944-8AD6-358B847C4F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81EB00D-3326-4A3C-9CBB-E9A2E3571C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1045,6 +1045,22 @@
   </si>
   <si>
     <t>1000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1478,11 +1494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E250"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B247" sqref="B247"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E253" sqref="E253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5743,6 +5759,74 @@
         <v>1245</v>
       </c>
     </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="4">
+        <v>249</v>
+      </c>
+      <c r="B251" s="3">
+        <v>1.2E+67</v>
+      </c>
+      <c r="C251" t="s">
+        <v>254</v>
+      </c>
+      <c r="D251" s="1">
+        <v>20</v>
+      </c>
+      <c r="E251" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="4">
+        <v>250</v>
+      </c>
+      <c r="B252" s="3">
+        <v>1.5E+67</v>
+      </c>
+      <c r="C252" t="s">
+        <v>255</v>
+      </c>
+      <c r="D252" s="1">
+        <v>20</v>
+      </c>
+      <c r="E252" s="1">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="4">
+        <v>251</v>
+      </c>
+      <c r="B253" s="3">
+        <v>1.7999999999999999E+67</v>
+      </c>
+      <c r="C253" t="s">
+        <v>256</v>
+      </c>
+      <c r="D253" s="1">
+        <v>20</v>
+      </c>
+      <c r="E253" s="1">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="4">
+        <v>252</v>
+      </c>
+      <c r="B254" s="3">
+        <v>2.1000000000000001E+67</v>
+      </c>
+      <c r="C254" t="s">
+        <v>257</v>
+      </c>
+      <c r="D254" s="1">
+        <v>20</v>
+      </c>
+      <c r="E254" s="1">
+        <v>1265</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81EB00D-3326-4A3C-9CBB-E9A2E3571C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD07BB9-70F3-4405-95DA-C5A28B7A86F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1061,6 +1061,34 @@
   </si>
   <si>
     <t>2100불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4500불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1494,11 +1522,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E254"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E253" sqref="E253"/>
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E252" sqref="E252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5827,6 +5855,125 @@
         <v>1265</v>
       </c>
     </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="4">
+        <v>253</v>
+      </c>
+      <c r="B255" s="3">
+        <v>2.4999999999999999E+67</v>
+      </c>
+      <c r="C255" t="s">
+        <v>258</v>
+      </c>
+      <c r="D255" s="1">
+        <v>20</v>
+      </c>
+      <c r="E255" s="1">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="4">
+        <v>254</v>
+      </c>
+      <c r="B256" s="3">
+        <v>3.0000000000000001E+67</v>
+      </c>
+      <c r="C256" t="s">
+        <v>259</v>
+      </c>
+      <c r="D256" s="1">
+        <v>20</v>
+      </c>
+      <c r="E256" s="1">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="4">
+        <v>255</v>
+      </c>
+      <c r="B257" s="3">
+        <v>3.5E+67</v>
+      </c>
+      <c r="C257" t="s">
+        <v>260</v>
+      </c>
+      <c r="D257" s="1">
+        <v>20</v>
+      </c>
+      <c r="E257" s="1">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="4">
+        <v>256</v>
+      </c>
+      <c r="B258" s="3">
+        <v>4.4999999999999998E+67</v>
+      </c>
+      <c r="C258" t="s">
+        <v>261</v>
+      </c>
+      <c r="D258" s="1">
+        <v>20</v>
+      </c>
+      <c r="E258" s="1">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="4">
+        <v>257</v>
+      </c>
+      <c r="B259" s="3">
+        <v>6.0000000000000002E+67</v>
+      </c>
+      <c r="C259" t="s">
+        <v>262</v>
+      </c>
+      <c r="D259" s="1">
+        <v>20</v>
+      </c>
+      <c r="E259" s="1">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="4">
+        <v>258</v>
+      </c>
+      <c r="B260" s="3">
+        <v>7.9999999999999999E+67</v>
+      </c>
+      <c r="C260" t="s">
+        <v>263</v>
+      </c>
+      <c r="D260" s="1">
+        <v>20</v>
+      </c>
+      <c r="E260" s="1">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="4">
+        <v>259</v>
+      </c>
+      <c r="B261" s="3">
+        <v>9.9999999999999995E+67</v>
+      </c>
+      <c r="C261" t="s">
+        <v>264</v>
+      </c>
+      <c r="D261" s="1">
+        <v>20</v>
+      </c>
+      <c r="E261" s="1">
+        <v>1300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD07BB9-70F3-4405-95DA-C5A28B7A86F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA731FDE-A93F-45FC-8641-E57417253BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1089,6 +1089,14 @@
   </si>
   <si>
     <t>1무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1무2000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1무5000불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1522,11 +1530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E252" sqref="E252"/>
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O247" sqref="O247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5974,6 +5982,40 @@
         <v>1300</v>
       </c>
     </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="4">
+        <v>260</v>
+      </c>
+      <c r="B262" s="3">
+        <v>1.2E+68</v>
+      </c>
+      <c r="C262" t="s">
+        <v>265</v>
+      </c>
+      <c r="D262" s="1">
+        <v>20</v>
+      </c>
+      <c r="E262" s="1">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="4">
+        <v>261</v>
+      </c>
+      <c r="B263" s="3">
+        <v>1.5000000000000001E+68</v>
+      </c>
+      <c r="C263" t="s">
+        <v>266</v>
+      </c>
+      <c r="D263" s="1">
+        <v>20</v>
+      </c>
+      <c r="E263" s="1">
+        <v>1310</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA731FDE-A93F-45FC-8641-E57417253BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495A9100-C9B1-4FC5-A806-143479B41DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1097,6 +1097,26 @@
   </si>
   <si>
     <t>1무5000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2무5000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1530,11 +1550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E263"/>
+  <dimension ref="A1:E268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O247" sqref="O247"/>
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A264" sqref="A264:C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6016,6 +6036,91 @@
         <v>1310</v>
       </c>
     </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="4">
+        <v>262</v>
+      </c>
+      <c r="B264" s="3">
+        <v>1.9999999999999999E+68</v>
+      </c>
+      <c r="C264" t="s">
+        <v>267</v>
+      </c>
+      <c r="D264" s="1">
+        <v>20</v>
+      </c>
+      <c r="E264" s="1">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="4">
+        <v>263</v>
+      </c>
+      <c r="B265" s="3">
+        <v>2.5000000000000002E+68</v>
+      </c>
+      <c r="C265" t="s">
+        <v>268</v>
+      </c>
+      <c r="D265" s="1">
+        <v>20</v>
+      </c>
+      <c r="E265" s="1">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="4">
+        <v>264</v>
+      </c>
+      <c r="B266" s="3">
+        <v>3.0000000000000002E+68</v>
+      </c>
+      <c r="C266" t="s">
+        <v>269</v>
+      </c>
+      <c r="D266" s="1">
+        <v>20</v>
+      </c>
+      <c r="E266" s="1">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="4">
+        <v>265</v>
+      </c>
+      <c r="B267" s="3">
+        <v>3.9999999999999998E+68</v>
+      </c>
+      <c r="C267" t="s">
+        <v>270</v>
+      </c>
+      <c r="D267" s="1">
+        <v>20</v>
+      </c>
+      <c r="E267" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="4">
+        <v>266</v>
+      </c>
+      <c r="B268" s="3">
+        <v>5.0000000000000004E+68</v>
+      </c>
+      <c r="C268" t="s">
+        <v>271</v>
+      </c>
+      <c r="D268" s="1">
+        <v>20</v>
+      </c>
+      <c r="E268" s="1">
+        <v>1335</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495A9100-C9B1-4FC5-A806-143479B41DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F79B745-F74D-4172-943C-8FEC99B9AF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1117,6 +1117,38 @@
   </si>
   <si>
     <t>5무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1550,11 +1582,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E268"/>
+  <dimension ref="A1:E276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A264" sqref="A264:C268"/>
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B260" sqref="B260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6121,6 +6153,142 @@
         <v>1335</v>
       </c>
     </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="4">
+        <v>267</v>
+      </c>
+      <c r="B269" s="3">
+        <v>6.9999999999999995E+68</v>
+      </c>
+      <c r="C269" t="s">
+        <v>272</v>
+      </c>
+      <c r="D269" s="1">
+        <v>20</v>
+      </c>
+      <c r="E269" s="1">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="4">
+        <v>268</v>
+      </c>
+      <c r="B270" s="3">
+        <v>1.0000000000000001E+69</v>
+      </c>
+      <c r="C270" t="s">
+        <v>273</v>
+      </c>
+      <c r="D270" s="1">
+        <v>20</v>
+      </c>
+      <c r="E270" s="1">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="4">
+        <v>269</v>
+      </c>
+      <c r="B271" s="3">
+        <v>1.4999999999999999E+69</v>
+      </c>
+      <c r="C271" t="s">
+        <v>274</v>
+      </c>
+      <c r="D271" s="1">
+        <v>20</v>
+      </c>
+      <c r="E271" s="1">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="4">
+        <v>270</v>
+      </c>
+      <c r="B272" s="3">
+        <v>2.0000000000000001E+69</v>
+      </c>
+      <c r="C272" t="s">
+        <v>275</v>
+      </c>
+      <c r="D272" s="1">
+        <v>20</v>
+      </c>
+      <c r="E272" s="1">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="4">
+        <v>271</v>
+      </c>
+      <c r="B273" s="3">
+        <v>2.9999999999999998E+69</v>
+      </c>
+      <c r="C273" t="s">
+        <v>276</v>
+      </c>
+      <c r="D273" s="1">
+        <v>20</v>
+      </c>
+      <c r="E273" s="1">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="4">
+        <v>272</v>
+      </c>
+      <c r="B274" s="3">
+        <v>5.0000000000000004E+69</v>
+      </c>
+      <c r="C274" t="s">
+        <v>277</v>
+      </c>
+      <c r="D274" s="1">
+        <v>20</v>
+      </c>
+      <c r="E274" s="1">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="4">
+        <v>273</v>
+      </c>
+      <c r="B275" s="3">
+        <v>6.9999999999999997E+69</v>
+      </c>
+      <c r="C275" t="s">
+        <v>278</v>
+      </c>
+      <c r="D275" s="1">
+        <v>20</v>
+      </c>
+      <c r="E275" s="1">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="4">
+        <v>274</v>
+      </c>
+      <c r="B276" s="3">
+        <v>1.0000000000000001E+70</v>
+      </c>
+      <c r="C276" t="s">
+        <v>279</v>
+      </c>
+      <c r="D276" s="1">
+        <v>20</v>
+      </c>
+      <c r="E276" s="1">
+        <v>1375</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F79B745-F74D-4172-943C-8FEC99B9AF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9BDF9E-9B40-499E-8F74-C17CBCEAED84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1149,6 +1149,26 @@
   </si>
   <si>
     <t>100무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1582,11 +1602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E276"/>
+  <dimension ref="A1:E281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B260" sqref="B260"/>
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C280" sqref="C280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6289,6 +6309,91 @@
         <v>1375</v>
       </c>
     </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="4">
+        <v>275</v>
+      </c>
+      <c r="B277" s="3">
+        <v>1.3E+70</v>
+      </c>
+      <c r="C277" t="s">
+        <v>280</v>
+      </c>
+      <c r="D277" s="1">
+        <v>20</v>
+      </c>
+      <c r="E277" s="1">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="4">
+        <v>276</v>
+      </c>
+      <c r="B278" s="3">
+        <v>1.6000000000000001E+70</v>
+      </c>
+      <c r="C278" t="s">
+        <v>281</v>
+      </c>
+      <c r="D278" s="1">
+        <v>20</v>
+      </c>
+      <c r="E278" s="1">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="4">
+        <v>277</v>
+      </c>
+      <c r="B279" s="3">
+        <v>2.0000000000000001E+70</v>
+      </c>
+      <c r="C279" t="s">
+        <v>282</v>
+      </c>
+      <c r="D279" s="1">
+        <v>20</v>
+      </c>
+      <c r="E279" s="1">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="4">
+        <v>278</v>
+      </c>
+      <c r="B280" s="3">
+        <v>2.5000000000000001E+70</v>
+      </c>
+      <c r="C280" t="s">
+        <v>283</v>
+      </c>
+      <c r="D280" s="1">
+        <v>20</v>
+      </c>
+      <c r="E280" s="1">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="4">
+        <v>279</v>
+      </c>
+      <c r="B281" s="3">
+        <v>2.9999999999999998E+70</v>
+      </c>
+      <c r="C281" t="s">
+        <v>284</v>
+      </c>
+      <c r="D281" s="1">
+        <v>20</v>
+      </c>
+      <c r="E281" s="1">
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9BDF9E-9B40-499E-8F74-C17CBCEAED84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D689C5ED-B3CA-43CB-81CA-89BEAB8DCB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1169,6 +1169,50 @@
   </si>
   <si>
     <t>300무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1600무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1602,11 +1646,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E281"/>
+  <dimension ref="A1:E292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C280" sqref="C280"/>
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D283" sqref="D283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6394,6 +6438,193 @@
         <v>1400</v>
       </c>
     </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="4">
+        <v>280</v>
+      </c>
+      <c r="B282" s="3">
+        <v>4.0000000000000003E+70</v>
+      </c>
+      <c r="C282" t="s">
+        <v>285</v>
+      </c>
+      <c r="D282" s="1">
+        <v>20</v>
+      </c>
+      <c r="E282" s="1">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="4">
+        <v>281</v>
+      </c>
+      <c r="B283" s="3">
+        <v>5.9999999999999995E+70</v>
+      </c>
+      <c r="C283" t="s">
+        <v>286</v>
+      </c>
+      <c r="D283" s="1">
+        <v>20</v>
+      </c>
+      <c r="E283" s="1">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="4">
+        <v>282</v>
+      </c>
+      <c r="B284" s="3">
+        <v>8.0000000000000006E+70</v>
+      </c>
+      <c r="C284" t="s">
+        <v>287</v>
+      </c>
+      <c r="D284" s="1">
+        <v>20</v>
+      </c>
+      <c r="E284" s="1">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="4">
+        <v>283</v>
+      </c>
+      <c r="B285" s="3">
+        <v>1E+71</v>
+      </c>
+      <c r="C285" t="s">
+        <v>288</v>
+      </c>
+      <c r="D285" s="1">
+        <v>20</v>
+      </c>
+      <c r="E285" s="1">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="4">
+        <v>284</v>
+      </c>
+      <c r="B286" s="3">
+        <v>1.3E+71</v>
+      </c>
+      <c r="C286" t="s">
+        <v>289</v>
+      </c>
+      <c r="D286" s="1">
+        <v>20</v>
+      </c>
+      <c r="E286" s="1">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="4">
+        <v>285</v>
+      </c>
+      <c r="B287" s="3">
+        <v>1.6000000000000001E+71</v>
+      </c>
+      <c r="C287" t="s">
+        <v>290</v>
+      </c>
+      <c r="D287" s="1">
+        <v>20</v>
+      </c>
+      <c r="E287" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="4">
+        <v>286</v>
+      </c>
+      <c r="B288" s="3">
+        <v>2.0000000000000001E+71</v>
+      </c>
+      <c r="C288" t="s">
+        <v>291</v>
+      </c>
+      <c r="D288" s="1">
+        <v>20</v>
+      </c>
+      <c r="E288" s="1">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="4">
+        <v>287</v>
+      </c>
+      <c r="B289" s="3">
+        <v>2.4999999999999999E+71</v>
+      </c>
+      <c r="C289" t="s">
+        <v>292</v>
+      </c>
+      <c r="D289" s="1">
+        <v>20</v>
+      </c>
+      <c r="E289" s="1">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="4">
+        <v>288</v>
+      </c>
+      <c r="B290" s="3">
+        <v>3.0000000000000001E+71</v>
+      </c>
+      <c r="C290" t="s">
+        <v>293</v>
+      </c>
+      <c r="D290" s="1">
+        <v>20</v>
+      </c>
+      <c r="E290" s="1">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="4">
+        <v>289</v>
+      </c>
+      <c r="B291" s="3">
+        <v>4.0000000000000002E+71</v>
+      </c>
+      <c r="C291" t="s">
+        <v>294</v>
+      </c>
+      <c r="D291" s="1">
+        <v>20</v>
+      </c>
+      <c r="E291" s="1">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="4">
+        <v>290</v>
+      </c>
+      <c r="B292" s="3">
+        <v>4.9999999999999997E+71</v>
+      </c>
+      <c r="C292" t="s">
+        <v>295</v>
+      </c>
+      <c r="D292" s="1">
+        <v>20</v>
+      </c>
+      <c r="E292" s="1">
+        <v>1455</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D689C5ED-B3CA-43CB-81CA-89BEAB8DCB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60E7160-0E97-4FAC-8E5F-03630D8F6E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1213,6 +1213,26 @@
   </si>
   <si>
     <t>5000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대3000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대6000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1646,11 +1666,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E292"/>
+  <dimension ref="A1:E297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D283" sqref="D283"/>
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C292" sqref="C292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6625,6 +6645,91 @@
         <v>1455</v>
       </c>
     </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="4">
+        <v>291</v>
+      </c>
+      <c r="B293" s="3">
+        <v>6.9999999999999998E+71</v>
+      </c>
+      <c r="C293" t="s">
+        <v>296</v>
+      </c>
+      <c r="D293" s="1">
+        <v>20</v>
+      </c>
+      <c r="E293" s="1">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="4">
+        <v>292</v>
+      </c>
+      <c r="B294" s="3">
+        <v>9.9999999999999994E+71</v>
+      </c>
+      <c r="C294" t="s">
+        <v>297</v>
+      </c>
+      <c r="D294" s="1">
+        <v>20</v>
+      </c>
+      <c r="E294" s="1">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="4">
+        <v>293</v>
+      </c>
+      <c r="B295" s="3">
+        <v>1.2999999999999999E+72</v>
+      </c>
+      <c r="C295" t="s">
+        <v>298</v>
+      </c>
+      <c r="D295" s="1">
+        <v>20</v>
+      </c>
+      <c r="E295" s="1">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="4">
+        <v>294</v>
+      </c>
+      <c r="B296" s="3">
+        <v>1.6000000000000001E+72</v>
+      </c>
+      <c r="C296" t="s">
+        <v>299</v>
+      </c>
+      <c r="D296" s="1">
+        <v>20</v>
+      </c>
+      <c r="E296" s="1">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="4">
+        <v>295</v>
+      </c>
+      <c r="B297" s="3">
+        <v>1.9999999999999999E+72</v>
+      </c>
+      <c r="C297" t="s">
+        <v>300</v>
+      </c>
+      <c r="D297" s="1">
+        <v>20</v>
+      </c>
+      <c r="E297" s="1">
+        <v>1480</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60E7160-0E97-4FAC-8E5F-03630D8F6E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FCC55B-DE29-4D44-8535-CEAD83252D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1233,6 +1233,22 @@
   </si>
   <si>
     <t>2대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2대5000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1666,11 +1682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E297"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C292" sqref="C292"/>
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G298" sqref="G298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6730,6 +6746,74 @@
         <v>1480</v>
       </c>
     </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="4">
+        <v>296</v>
+      </c>
+      <c r="B298" s="3">
+        <v>2.5E+72</v>
+      </c>
+      <c r="C298" t="s">
+        <v>301</v>
+      </c>
+      <c r="D298" s="1">
+        <v>20</v>
+      </c>
+      <c r="E298" s="1">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="4">
+        <v>297</v>
+      </c>
+      <c r="B299" s="3">
+        <v>3E+72</v>
+      </c>
+      <c r="C299" t="s">
+        <v>302</v>
+      </c>
+      <c r="D299" s="1">
+        <v>20</v>
+      </c>
+      <c r="E299" s="1">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="4">
+        <v>298</v>
+      </c>
+      <c r="B300" s="3">
+        <v>3.9999999999999998E+72</v>
+      </c>
+      <c r="C300" t="s">
+        <v>303</v>
+      </c>
+      <c r="D300" s="1">
+        <v>20</v>
+      </c>
+      <c r="E300" s="1">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="4">
+        <v>299</v>
+      </c>
+      <c r="B301" s="3">
+        <v>4.9999999999999999E+72</v>
+      </c>
+      <c r="C301" t="s">
+        <v>304</v>
+      </c>
+      <c r="D301" s="1">
+        <v>20</v>
+      </c>
+      <c r="E301" s="1">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FCC55B-DE29-4D44-8535-CEAD83252D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4110D0B0-0809-43FA-AF5A-04E0F379C350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1249,6 +1249,62 @@
   </si>
   <si>
     <t>5대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1682,11 +1738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G298" sqref="G298"/>
+      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B314" sqref="B314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6814,6 +6870,244 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="4">
+        <v>300</v>
+      </c>
+      <c r="B302" s="3">
+        <v>7.0000000000000002E+72</v>
+      </c>
+      <c r="C302" t="s">
+        <v>305</v>
+      </c>
+      <c r="D302" s="1">
+        <v>20</v>
+      </c>
+      <c r="E302" s="1">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="4">
+        <v>301</v>
+      </c>
+      <c r="B303" s="3">
+        <v>9.9999999999999998E+72</v>
+      </c>
+      <c r="C303" t="s">
+        <v>306</v>
+      </c>
+      <c r="D303" s="1">
+        <v>20</v>
+      </c>
+      <c r="E303" s="1">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="4">
+        <v>302</v>
+      </c>
+      <c r="B304" s="3">
+        <v>1.5000000000000001E+73</v>
+      </c>
+      <c r="C304" t="s">
+        <v>307</v>
+      </c>
+      <c r="D304" s="1">
+        <v>20</v>
+      </c>
+      <c r="E304" s="1">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="4">
+        <v>303</v>
+      </c>
+      <c r="B305" s="3">
+        <v>2E+73</v>
+      </c>
+      <c r="C305" t="s">
+        <v>308</v>
+      </c>
+      <c r="D305" s="1">
+        <v>20</v>
+      </c>
+      <c r="E305" s="1">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="4">
+        <v>304</v>
+      </c>
+      <c r="B306" s="3">
+        <v>2.4999999999999999E+73</v>
+      </c>
+      <c r="C306" t="s">
+        <v>309</v>
+      </c>
+      <c r="D306" s="1">
+        <v>20</v>
+      </c>
+      <c r="E306" s="1">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="4">
+        <v>305</v>
+      </c>
+      <c r="B307" s="3">
+        <v>3.0000000000000001E+73</v>
+      </c>
+      <c r="C307" t="s">
+        <v>310</v>
+      </c>
+      <c r="D307" s="1">
+        <v>20</v>
+      </c>
+      <c r="E307" s="1">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="4">
+        <v>306</v>
+      </c>
+      <c r="B308" s="3">
+        <v>3.9999999999999999E+73</v>
+      </c>
+      <c r="C308" t="s">
+        <v>311</v>
+      </c>
+      <c r="D308" s="1">
+        <v>20</v>
+      </c>
+      <c r="E308" s="1">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="4">
+        <v>307</v>
+      </c>
+      <c r="B309" s="3">
+        <v>4.9999999999999998E+73</v>
+      </c>
+      <c r="C309" t="s">
+        <v>312</v>
+      </c>
+      <c r="D309" s="1">
+        <v>20</v>
+      </c>
+      <c r="E309" s="1">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="4">
+        <v>308</v>
+      </c>
+      <c r="B310" s="3">
+        <v>6.0000000000000002E+73</v>
+      </c>
+      <c r="C310" t="s">
+        <v>313</v>
+      </c>
+      <c r="D310" s="1">
+        <v>20</v>
+      </c>
+      <c r="E310" s="1">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="4">
+        <v>309</v>
+      </c>
+      <c r="B311" s="3">
+        <v>7.9999999999999999E+73</v>
+      </c>
+      <c r="C311" t="s">
+        <v>314</v>
+      </c>
+      <c r="D311" s="1">
+        <v>20</v>
+      </c>
+      <c r="E311" s="1">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="4">
+        <v>310</v>
+      </c>
+      <c r="B312" s="3">
+        <v>9.9999999999999995E+73</v>
+      </c>
+      <c r="C312" t="s">
+        <v>315</v>
+      </c>
+      <c r="D312" s="1">
+        <v>20</v>
+      </c>
+      <c r="E312" s="1">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="4">
+        <v>311</v>
+      </c>
+      <c r="B313" s="3">
+        <v>1.3E+74</v>
+      </c>
+      <c r="C313" t="s">
+        <v>316</v>
+      </c>
+      <c r="D313" s="1">
+        <v>20</v>
+      </c>
+      <c r="E313" s="1">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="4">
+        <v>312</v>
+      </c>
+      <c r="B314" s="3">
+        <v>1.6E+74</v>
+      </c>
+      <c r="C314" t="s">
+        <v>317</v>
+      </c>
+      <c r="D314" s="1">
+        <v>20</v>
+      </c>
+      <c r="E314" s="1">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="4">
+        <v>313</v>
+      </c>
+      <c r="B315" s="3">
+        <v>1.9999999999999999E+74</v>
+      </c>
+      <c r="C315" t="s">
+        <v>318</v>
+      </c>
+      <c r="D315" s="1">
+        <v>20</v>
+      </c>
+      <c r="E315" s="1">
+        <v>1570</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4110D0B0-0809-43FA-AF5A-04E0F379C350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5B673C-B99C-43E3-B4D7-6D9CF7C189AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1305,6 +1305,22 @@
   </si>
   <si>
     <t>200대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1738,11 +1754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E315"/>
+  <dimension ref="A1:E319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B314" sqref="B314"/>
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7108,6 +7124,74 @@
         <v>1570</v>
       </c>
     </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="4">
+        <v>314</v>
+      </c>
+      <c r="B316" s="3">
+        <v>2.4999999999999998E+74</v>
+      </c>
+      <c r="C316" t="s">
+        <v>319</v>
+      </c>
+      <c r="D316" s="1">
+        <v>20</v>
+      </c>
+      <c r="E316" s="1">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="4">
+        <v>315</v>
+      </c>
+      <c r="B317" s="3">
+        <v>3E+74</v>
+      </c>
+      <c r="C317" t="s">
+        <v>320</v>
+      </c>
+      <c r="D317" s="1">
+        <v>20</v>
+      </c>
+      <c r="E317" s="1">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="4">
+        <v>316</v>
+      </c>
+      <c r="B318" s="3">
+        <v>3.9999999999999998E+74</v>
+      </c>
+      <c r="C318" t="s">
+        <v>321</v>
+      </c>
+      <c r="D318" s="1">
+        <v>20</v>
+      </c>
+      <c r="E318" s="1">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="4">
+        <v>317</v>
+      </c>
+      <c r="B319" s="3">
+        <v>4.9999999999999996E+74</v>
+      </c>
+      <c r="C319" t="s">
+        <v>322</v>
+      </c>
+      <c r="D319" s="1">
+        <v>20</v>
+      </c>
+      <c r="E319" s="1">
+        <v>1590</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5B673C-B99C-43E3-B4D7-6D9CF7C189AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1393F0-DB43-4CE8-BBD3-3F4FFC99873D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1321,6 +1321,26 @@
   </si>
   <si>
     <t>500대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1754,11 +1774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E319"/>
+  <dimension ref="A1:E324"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C317" sqref="C317"/>
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C323" sqref="C323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7192,6 +7212,91 @@
         <v>1590</v>
       </c>
     </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="4">
+        <v>318</v>
+      </c>
+      <c r="B320" s="3">
+        <v>7.0000000000000003E+74</v>
+      </c>
+      <c r="C320" t="s">
+        <v>323</v>
+      </c>
+      <c r="D320" s="1">
+        <v>20</v>
+      </c>
+      <c r="E320" s="1">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="4">
+        <v>319</v>
+      </c>
+      <c r="B321" s="3">
+        <v>8.9999999999999999E+74</v>
+      </c>
+      <c r="C321" t="s">
+        <v>324</v>
+      </c>
+      <c r="D321" s="1">
+        <v>20</v>
+      </c>
+      <c r="E321" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="4">
+        <v>320</v>
+      </c>
+      <c r="B322" s="3">
+        <v>1.2E+75</v>
+      </c>
+      <c r="C322" t="s">
+        <v>325</v>
+      </c>
+      <c r="D322" s="1">
+        <v>20</v>
+      </c>
+      <c r="E322" s="1">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="4">
+        <v>321</v>
+      </c>
+      <c r="B323" s="3">
+        <v>1.5E+75</v>
+      </c>
+      <c r="C323" t="s">
+        <v>326</v>
+      </c>
+      <c r="D323" s="1">
+        <v>20</v>
+      </c>
+      <c r="E323" s="1">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="4">
+        <v>322</v>
+      </c>
+      <c r="B324" s="3">
+        <v>1.9999999999999999E+75</v>
+      </c>
+      <c r="C324" t="s">
+        <v>327</v>
+      </c>
+      <c r="D324" s="1">
+        <v>20</v>
+      </c>
+      <c r="E324" s="1">
+        <v>1615</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1393F0-DB43-4CE8-BBD3-3F4FFC99873D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D9D098-8E08-42B9-81E4-0D44E16DF373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1341,6 +1341,54 @@
   </si>
   <si>
     <t>2000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1겁5000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1774,11 +1822,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E324"/>
+  <dimension ref="A1:E336"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C323" sqref="C323"/>
+      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B325" sqref="B325:C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7297,6 +7345,210 @@
         <v>1615</v>
       </c>
     </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="4">
+        <v>323</v>
+      </c>
+      <c r="B325" s="3">
+        <v>3.9999999999999997E+75</v>
+      </c>
+      <c r="C325" t="s">
+        <v>328</v>
+      </c>
+      <c r="D325" s="1">
+        <v>20</v>
+      </c>
+      <c r="E325" s="1">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="4">
+        <v>324</v>
+      </c>
+      <c r="B326" s="3">
+        <v>6E+75</v>
+      </c>
+      <c r="C326" t="s">
+        <v>339</v>
+      </c>
+      <c r="D326" s="1">
+        <v>20</v>
+      </c>
+      <c r="E326" s="1">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="4">
+        <v>325</v>
+      </c>
+      <c r="B327" s="3">
+        <v>7.9999999999999994E+75</v>
+      </c>
+      <c r="C327" t="s">
+        <v>330</v>
+      </c>
+      <c r="D327" s="1">
+        <v>20</v>
+      </c>
+      <c r="E327" s="1">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="4">
+        <v>326</v>
+      </c>
+      <c r="B328" s="3">
+        <v>1E+76</v>
+      </c>
+      <c r="C328" t="s">
+        <v>329</v>
+      </c>
+      <c r="D328" s="1">
+        <v>20</v>
+      </c>
+      <c r="E328" s="1">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="4">
+        <v>327</v>
+      </c>
+      <c r="B329" s="3">
+        <v>1.4999999999999999E+76</v>
+      </c>
+      <c r="C329" t="s">
+        <v>331</v>
+      </c>
+      <c r="D329" s="1">
+        <v>20</v>
+      </c>
+      <c r="E329" s="1">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="4">
+        <v>328</v>
+      </c>
+      <c r="B330" s="3">
+        <v>2.0000000000000001E+76</v>
+      </c>
+      <c r="C330" t="s">
+        <v>332</v>
+      </c>
+      <c r="D330" s="1">
+        <v>20</v>
+      </c>
+      <c r="E330" s="1">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="4">
+        <v>329</v>
+      </c>
+      <c r="B331" s="3">
+        <v>2.9999999999999998E+76</v>
+      </c>
+      <c r="C331" t="s">
+        <v>333</v>
+      </c>
+      <c r="D331" s="1">
+        <v>20</v>
+      </c>
+      <c r="E331" s="1">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="4">
+        <v>330</v>
+      </c>
+      <c r="B332" s="3">
+        <v>4.9999999999999999E+76</v>
+      </c>
+      <c r="C332" t="s">
+        <v>334</v>
+      </c>
+      <c r="D332" s="1">
+        <v>20</v>
+      </c>
+      <c r="E332" s="1">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="4">
+        <v>331</v>
+      </c>
+      <c r="B333" s="3">
+        <v>7E+76</v>
+      </c>
+      <c r="C333" t="s">
+        <v>335</v>
+      </c>
+      <c r="D333" s="1">
+        <v>20</v>
+      </c>
+      <c r="E333" s="1">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="4">
+        <v>332</v>
+      </c>
+      <c r="B334" s="3">
+        <v>9.9999999999999998E+76</v>
+      </c>
+      <c r="C334" t="s">
+        <v>336</v>
+      </c>
+      <c r="D334" s="1">
+        <v>20</v>
+      </c>
+      <c r="E334" s="1">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="4">
+        <v>333</v>
+      </c>
+      <c r="B335" s="3">
+        <v>1.4999999999999999E+77</v>
+      </c>
+      <c r="C335" t="s">
+        <v>337</v>
+      </c>
+      <c r="D335" s="1">
+        <v>20</v>
+      </c>
+      <c r="E335" s="1">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="4">
+        <v>334</v>
+      </c>
+      <c r="B336" s="3">
+        <v>2E+77</v>
+      </c>
+      <c r="C336" t="s">
+        <v>338</v>
+      </c>
+      <c r="D336" s="1">
+        <v>20</v>
+      </c>
+      <c r="E336" s="1">
+        <v>1675</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\MonthUpdate\Month\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D9D098-8E08-42B9-81E4-0D44E16DF373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B875BABF-01C0-4E62-B219-52CC7AC7BC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="344">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1389,6 +1389,22 @@
   </si>
   <si>
     <t>6000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100겁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1822,11 +1838,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E336"/>
+  <dimension ref="A1:E340"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B325" sqref="B325:C336"/>
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C339" sqref="C339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7549,6 +7565,74 @@
         <v>1675</v>
       </c>
     </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="4">
+        <v>335</v>
+      </c>
+      <c r="B337" s="3">
+        <v>2.9999999999999998E+77</v>
+      </c>
+      <c r="C337" t="s">
+        <v>340</v>
+      </c>
+      <c r="D337" s="1">
+        <v>20</v>
+      </c>
+      <c r="E337" s="1">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="4">
+        <v>336</v>
+      </c>
+      <c r="B338" s="3">
+        <v>5E+77</v>
+      </c>
+      <c r="C338" t="s">
+        <v>341</v>
+      </c>
+      <c r="D338" s="1">
+        <v>20</v>
+      </c>
+      <c r="E338" s="1">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="4">
+        <v>337</v>
+      </c>
+      <c r="B339" s="3">
+        <v>7.0000000000000003E+77</v>
+      </c>
+      <c r="C339" t="s">
+        <v>342</v>
+      </c>
+      <c r="D339" s="1">
+        <v>20</v>
+      </c>
+      <c r="E339" s="1">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="4">
+        <v>338</v>
+      </c>
+      <c r="B340" s="3">
+        <v>1E+78</v>
+      </c>
+      <c r="C340" t="s">
+        <v>343</v>
+      </c>
+      <c r="D340" s="1">
+        <v>20</v>
+      </c>
+      <c r="E340" s="1">
+        <v>1695</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\MonthUpdate\Month\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B875BABF-01C0-4E62-B219-52CC7AC7BC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A431E07-4AEB-4793-952C-973E8516005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1405,6 +1405,30 @@
   </si>
   <si>
     <t>100겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500겁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1838,11 +1862,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E340"/>
+  <dimension ref="A1:E346"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C339" sqref="C339"/>
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B340" sqref="B340:B346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7633,6 +7657,108 @@
         <v>1695</v>
       </c>
     </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="4">
+        <v>339</v>
+      </c>
+      <c r="B341" s="3">
+        <v>1.4999999999999999E+78</v>
+      </c>
+      <c r="C341" t="s">
+        <v>347</v>
+      </c>
+      <c r="D341" s="1">
+        <v>20</v>
+      </c>
+      <c r="E341" s="1">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="4">
+        <v>340</v>
+      </c>
+      <c r="B342" s="3">
+        <v>2E+78</v>
+      </c>
+      <c r="C342" t="s">
+        <v>344</v>
+      </c>
+      <c r="D342" s="1">
+        <v>20</v>
+      </c>
+      <c r="E342" s="1">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="4">
+        <v>341</v>
+      </c>
+      <c r="B343" s="3">
+        <v>2.4999999999999999E+78</v>
+      </c>
+      <c r="C343" t="s">
+        <v>346</v>
+      </c>
+      <c r="D343" s="1">
+        <v>20</v>
+      </c>
+      <c r="E343" s="1">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="4">
+        <v>342</v>
+      </c>
+      <c r="B344" s="3">
+        <v>2.9999999999999998E+78</v>
+      </c>
+      <c r="C344" t="s">
+        <v>345</v>
+      </c>
+      <c r="D344" s="1">
+        <v>20</v>
+      </c>
+      <c r="E344" s="1">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="4">
+        <v>343</v>
+      </c>
+      <c r="B345" s="3">
+        <v>4E+78</v>
+      </c>
+      <c r="C345" t="s">
+        <v>348</v>
+      </c>
+      <c r="D345" s="1">
+        <v>20</v>
+      </c>
+      <c r="E345" s="1">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="4">
+        <v>344</v>
+      </c>
+      <c r="B346" s="3">
+        <v>4.9999999999999998E+78</v>
+      </c>
+      <c r="C346" t="s">
+        <v>349</v>
+      </c>
+      <c r="D346" s="1">
+        <v>20</v>
+      </c>
+      <c r="E346" s="1">
+        <v>1725</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A431E07-4AEB-4793-952C-973E8516005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97F9608-33BC-4FE5-A61C-1E223DB41465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1429,6 +1429,18 @@
   </si>
   <si>
     <t>500겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000겁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1862,11 +1874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E346"/>
+  <dimension ref="A1:E349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B340" sqref="B340:B346"/>
+      <selection pane="bottomLeft" activeCell="B347" sqref="B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7759,6 +7771,57 @@
         <v>1725</v>
       </c>
     </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="4">
+        <v>345</v>
+      </c>
+      <c r="B347" s="3">
+        <v>5.9999999999999996E+78</v>
+      </c>
+      <c r="C347" t="s">
+        <v>350</v>
+      </c>
+      <c r="D347" s="1">
+        <v>20</v>
+      </c>
+      <c r="E347" s="1">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="4">
+        <v>346</v>
+      </c>
+      <c r="B348" s="3">
+        <v>8.0000000000000001E+78</v>
+      </c>
+      <c r="C348" t="s">
+        <v>351</v>
+      </c>
+      <c r="D348" s="1">
+        <v>20</v>
+      </c>
+      <c r="E348" s="1">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="4">
+        <v>347</v>
+      </c>
+      <c r="B349" s="3">
+        <v>9.9999999999999997E+78</v>
+      </c>
+      <c r="C349" t="s">
+        <v>352</v>
+      </c>
+      <c r="D349" s="1">
+        <v>20</v>
+      </c>
+      <c r="E349" s="1">
+        <v>1740</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97F9608-33BC-4FE5-A61C-1E223DB41465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212E24FD-61D2-4CB6-A95E-A9754F96DFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1441,6 +1441,42 @@
   </si>
   <si>
     <t>1000겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1874,11 +1910,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E349"/>
+  <dimension ref="A1:E358"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B347" sqref="B347"/>
+      <selection pane="bottomLeft" activeCell="C354" sqref="C354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7822,6 +7858,159 @@
         <v>1740</v>
       </c>
     </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="4">
+        <v>348</v>
+      </c>
+      <c r="B350" s="3">
+        <v>1.9999999999999999E+79</v>
+      </c>
+      <c r="C350" t="s">
+        <v>353</v>
+      </c>
+      <c r="D350" s="1">
+        <v>20</v>
+      </c>
+      <c r="E350" s="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="4">
+        <v>349</v>
+      </c>
+      <c r="B351" s="3">
+        <v>5E+79</v>
+      </c>
+      <c r="C351" t="s">
+        <v>356</v>
+      </c>
+      <c r="D351" s="1">
+        <v>20</v>
+      </c>
+      <c r="E351" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="4">
+        <v>350</v>
+      </c>
+      <c r="B352" s="3">
+        <v>1E+80</v>
+      </c>
+      <c r="C352" t="s">
+        <v>354</v>
+      </c>
+      <c r="D352" s="1">
+        <v>20</v>
+      </c>
+      <c r="E352" s="1">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="4">
+        <v>351</v>
+      </c>
+      <c r="B353" s="3">
+        <v>2E+80</v>
+      </c>
+      <c r="C353" t="s">
+        <v>355</v>
+      </c>
+      <c r="D353" s="1">
+        <v>20</v>
+      </c>
+      <c r="E353" s="1">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="4">
+        <v>352</v>
+      </c>
+      <c r="B354" s="3">
+        <v>4E+80</v>
+      </c>
+      <c r="C354" t="s">
+        <v>357</v>
+      </c>
+      <c r="D354" s="1">
+        <v>20</v>
+      </c>
+      <c r="E354" s="1">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" s="4">
+        <v>353</v>
+      </c>
+      <c r="B355" s="3">
+        <v>5.9999999999999997E+80</v>
+      </c>
+      <c r="C355" t="s">
+        <v>358</v>
+      </c>
+      <c r="D355" s="1">
+        <v>20</v>
+      </c>
+      <c r="E355" s="1">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="4">
+        <v>354</v>
+      </c>
+      <c r="B356" s="3">
+        <v>9.9999999999999992E+80</v>
+      </c>
+      <c r="C356" t="s">
+        <v>359</v>
+      </c>
+      <c r="D356" s="1">
+        <v>20</v>
+      </c>
+      <c r="E356" s="1">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" s="4">
+        <v>355</v>
+      </c>
+      <c r="B357" s="3">
+        <v>1.5E+81</v>
+      </c>
+      <c r="C357" t="s">
+        <v>360</v>
+      </c>
+      <c r="D357" s="1">
+        <v>20</v>
+      </c>
+      <c r="E357" s="1">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" s="4">
+        <v>356</v>
+      </c>
+      <c r="B358" s="3">
+        <v>1.9999999999999998E+81</v>
+      </c>
+      <c r="C358" t="s">
+        <v>361</v>
+      </c>
+      <c r="D358" s="1">
+        <v>20</v>
+      </c>
+      <c r="E358" s="1">
+        <v>1785</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212E24FD-61D2-4CB6-A95E-A9754F96DFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB8D896-980B-4E6B-B418-C3B0DE7B3D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1477,6 +1477,34 @@
   </si>
   <si>
     <t>20업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1910,11 +1938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E358"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C354" sqref="C354"/>
+      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E357" sqref="E357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8011,6 +8039,125 @@
         <v>1785</v>
       </c>
     </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="4">
+        <v>357</v>
+      </c>
+      <c r="B359" s="3">
+        <v>4.9999999999999998E+81</v>
+      </c>
+      <c r="C359" t="s">
+        <v>362</v>
+      </c>
+      <c r="D359" s="1">
+        <v>20</v>
+      </c>
+      <c r="E359" s="1">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="4">
+        <v>358</v>
+      </c>
+      <c r="B360" s="3">
+        <v>9.9999999999999996E+81</v>
+      </c>
+      <c r="C360" t="s">
+        <v>363</v>
+      </c>
+      <c r="D360" s="1">
+        <v>20</v>
+      </c>
+      <c r="E360" s="1">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" s="4">
+        <v>359</v>
+      </c>
+      <c r="B361" s="3">
+        <v>1.9999999999999999E+82</v>
+      </c>
+      <c r="C361" t="s">
+        <v>364</v>
+      </c>
+      <c r="D361" s="1">
+        <v>20</v>
+      </c>
+      <c r="E361" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="4">
+        <v>360</v>
+      </c>
+      <c r="B362" s="3">
+        <v>5.0000000000000002E+82</v>
+      </c>
+      <c r="C362" t="s">
+        <v>365</v>
+      </c>
+      <c r="D362" s="1">
+        <v>20</v>
+      </c>
+      <c r="E362" s="1">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="4">
+        <v>361</v>
+      </c>
+      <c r="B363" s="3">
+        <v>1E+83</v>
+      </c>
+      <c r="C363" t="s">
+        <v>366</v>
+      </c>
+      <c r="D363" s="1">
+        <v>20</v>
+      </c>
+      <c r="E363" s="1">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="4">
+        <v>362</v>
+      </c>
+      <c r="B364" s="3">
+        <v>2.0000000000000001E+83</v>
+      </c>
+      <c r="C364" t="s">
+        <v>368</v>
+      </c>
+      <c r="D364" s="1">
+        <v>20</v>
+      </c>
+      <c r="E364" s="1">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="4">
+        <v>363</v>
+      </c>
+      <c r="B365" s="3">
+        <v>5.0000000000000003E+83</v>
+      </c>
+      <c r="C365" t="s">
+        <v>367</v>
+      </c>
+      <c r="D365" s="1">
+        <v>20</v>
+      </c>
+      <c r="E365" s="1">
+        <v>1820</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB8D896-980B-4E6B-B418-C3B0DE7B3D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC73D410-A525-45CD-A2E2-C8935A3EDD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SonReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="376">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1505,6 +1505,34 @@
   </si>
   <si>
     <t>2000업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25긍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1938,11 +1966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E365"/>
+  <dimension ref="A1:E372"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E357" sqref="E357"/>
+      <pane ySplit="1" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G365" sqref="G365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8158,6 +8186,125 @@
         <v>1820</v>
       </c>
     </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="4">
+        <v>364</v>
+      </c>
+      <c r="B366" s="3">
+        <v>8.0000000000000002E+83</v>
+      </c>
+      <c r="C366" t="s">
+        <v>369</v>
+      </c>
+      <c r="D366" s="1">
+        <v>20</v>
+      </c>
+      <c r="E366" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="4">
+        <v>365</v>
+      </c>
+      <c r="B367" s="3">
+        <v>1.0000000000000001E+84</v>
+      </c>
+      <c r="C367" t="s">
+        <v>370</v>
+      </c>
+      <c r="D367" s="1">
+        <v>20</v>
+      </c>
+      <c r="E367" s="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="4">
+        <v>366</v>
+      </c>
+      <c r="B368" s="3">
+        <v>2.0000000000000001E+84</v>
+      </c>
+      <c r="C368" t="s">
+        <v>371</v>
+      </c>
+      <c r="D368" s="1">
+        <v>20</v>
+      </c>
+      <c r="E368" s="1">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="4">
+        <v>367</v>
+      </c>
+      <c r="B369" s="3">
+        <v>5.0000000000000001E+84</v>
+      </c>
+      <c r="C369" t="s">
+        <v>372</v>
+      </c>
+      <c r="D369" s="1">
+        <v>20</v>
+      </c>
+      <c r="E369" s="1">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" s="4">
+        <v>368</v>
+      </c>
+      <c r="B370" s="3">
+        <v>1E+85</v>
+      </c>
+      <c r="C370" t="s">
+        <v>373</v>
+      </c>
+      <c r="D370" s="1">
+        <v>20</v>
+      </c>
+      <c r="E370" s="1">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="4">
+        <v>369</v>
+      </c>
+      <c r="B371" s="3">
+        <v>2E+85</v>
+      </c>
+      <c r="C371" t="s">
+        <v>374</v>
+      </c>
+      <c r="D371" s="1">
+        <v>20</v>
+      </c>
+      <c r="E371" s="1">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="4">
+        <v>370</v>
+      </c>
+      <c r="B372" s="3">
+        <v>2.5E+85</v>
+      </c>
+      <c r="C372" t="s">
+        <v>375</v>
+      </c>
+      <c r="D372" s="1">
+        <v>20</v>
+      </c>
+      <c r="E372" s="1">
+        <v>1855</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC73D410-A525-45CD-A2E2-C8935A3EDD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46C5BF3-D0E9-4504-940B-6C5B2D03BF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1533,6 +1533,38 @@
   </si>
   <si>
     <t>25긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5갈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1958,7 +1990,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1966,11 +1998,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E372"/>
+  <dimension ref="A1:E380"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A357" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G365" sqref="G365"/>
+      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B381" sqref="B381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8305,6 +8337,142 @@
         <v>1855</v>
       </c>
     </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="4">
+        <v>371</v>
+      </c>
+      <c r="B373" s="3">
+        <v>1E+86</v>
+      </c>
+      <c r="C373" t="s">
+        <v>376</v>
+      </c>
+      <c r="D373" s="1">
+        <v>20</v>
+      </c>
+      <c r="E373" s="1">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="4">
+        <v>372</v>
+      </c>
+      <c r="B374" s="3">
+        <v>4.9999999999999998E+86</v>
+      </c>
+      <c r="C374" t="s">
+        <v>377</v>
+      </c>
+      <c r="D374" s="1">
+        <v>20</v>
+      </c>
+      <c r="E374" s="1">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="4">
+        <v>373</v>
+      </c>
+      <c r="B375" s="3">
+        <v>9.9999999999999996E+86</v>
+      </c>
+      <c r="C375" t="s">
+        <v>378</v>
+      </c>
+      <c r="D375" s="1">
+        <v>20</v>
+      </c>
+      <c r="E375" s="1">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="4">
+        <v>374</v>
+      </c>
+      <c r="B376" s="3">
+        <v>2.9999999999999999E+87</v>
+      </c>
+      <c r="C376" t="s">
+        <v>379</v>
+      </c>
+      <c r="D376" s="1">
+        <v>20</v>
+      </c>
+      <c r="E376" s="1">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" s="4">
+        <v>375</v>
+      </c>
+      <c r="B377" s="3">
+        <v>4.9999999999999998E+87</v>
+      </c>
+      <c r="C377" t="s">
+        <v>380</v>
+      </c>
+      <c r="D377" s="1">
+        <v>20</v>
+      </c>
+      <c r="E377" s="1">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="4">
+        <v>376</v>
+      </c>
+      <c r="B378" s="3">
+        <v>9.9999999999999996E+87</v>
+      </c>
+      <c r="C378" t="s">
+        <v>381</v>
+      </c>
+      <c r="D378" s="1">
+        <v>20</v>
+      </c>
+      <c r="E378" s="1">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" s="4">
+        <v>377</v>
+      </c>
+      <c r="B379" s="3">
+        <v>1.9999999999999999E+88</v>
+      </c>
+      <c r="C379" t="s">
+        <v>382</v>
+      </c>
+      <c r="D379" s="1">
+        <v>20</v>
+      </c>
+      <c r="E379" s="1">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" s="4">
+        <v>378</v>
+      </c>
+      <c r="B380" s="3">
+        <v>5E+88</v>
+      </c>
+      <c r="C380" t="s">
+        <v>383</v>
+      </c>
+      <c r="D380" s="1">
+        <v>20</v>
+      </c>
+      <c r="E380" s="1">
+        <v>1895</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46C5BF3-D0E9-4504-940B-6C5B2D03BF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBC831A-5127-49AE-A70C-EFEFBE427830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="388">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1565,6 +1565,22 @@
   </si>
   <si>
     <t>5갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50갈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1998,11 +2014,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E380"/>
+  <dimension ref="A1:E384"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B381" sqref="B381"/>
+      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C379" sqref="C379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8473,6 +8489,74 @@
         <v>1895</v>
       </c>
     </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" s="4">
+        <v>379</v>
+      </c>
+      <c r="B381" s="3">
+        <v>9.9999999999999999E+88</v>
+      </c>
+      <c r="C381" t="s">
+        <v>384</v>
+      </c>
+      <c r="D381" s="1">
+        <v>20</v>
+      </c>
+      <c r="E381" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" s="4">
+        <v>380</v>
+      </c>
+      <c r="B382" s="3">
+        <v>2E+89</v>
+      </c>
+      <c r="C382" t="s">
+        <v>385</v>
+      </c>
+      <c r="D382" s="1">
+        <v>20</v>
+      </c>
+      <c r="E382" s="1">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" s="4">
+        <v>381</v>
+      </c>
+      <c r="B383" s="3">
+        <v>3.0000000000000001E+89</v>
+      </c>
+      <c r="C383" t="s">
+        <v>386</v>
+      </c>
+      <c r="D383" s="1">
+        <v>20</v>
+      </c>
+      <c r="E383" s="1">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" s="4">
+        <v>382</v>
+      </c>
+      <c r="B384" s="3">
+        <v>4.9999999999999998E+89</v>
+      </c>
+      <c r="C384" t="s">
+        <v>387</v>
+      </c>
+      <c r="D384" s="1">
+        <v>20</v>
+      </c>
+      <c r="E384" s="1">
+        <v>1915</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SonReward.xlsx
+++ b/Assets/06.Table/SonReward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBC831A-5127-49AE-A70C-EFEFBE427830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA679357-C228-4BB6-B958-025E9FD33EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1581,6 +1581,42 @@
   </si>
   <si>
     <t>50갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400갈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2006,7 +2042,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2014,11 +2050,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E384"/>
+  <dimension ref="A1:E393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C379" sqref="C379"/>
+      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B393" sqref="B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8557,6 +8593,159 @@
         <v>1915</v>
       </c>
     </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" s="4">
+        <v>383</v>
+      </c>
+      <c r="B385" s="3">
+        <v>6.0000000000000003E+89</v>
+      </c>
+      <c r="C385" t="s">
+        <v>389</v>
+      </c>
+      <c r="D385" s="1">
+        <v>20</v>
+      </c>
+      <c r="E385" s="1">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" s="4">
+        <v>384</v>
+      </c>
+      <c r="B386" s="3">
+        <v>7.0000000000000001E+89</v>
+      </c>
+      <c r="C386" t="s">
+        <v>388</v>
+      </c>
+      <c r="D386" s="1">
+        <v>20</v>
+      </c>
+      <c r="E386" s="1">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" s="4">
+        <v>385</v>
+      </c>
+      <c r="B387" s="3">
+        <v>8E+89</v>
+      </c>
+      <c r="C387" t="s">
+        <v>390</v>
+      </c>
+      <c r="D387" s="1">
+        <v>20</v>
+      </c>
+      <c r="E387" s="1">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" s="4">
+        <v>386</v>
+      </c>
+      <c r="B388" s="3">
+        <v>9.9999999999999997E+89</v>
+      </c>
+      <c r="C388" t="s">
+        <v>391</v>
+      </c>
+      <c r="D388" s="1">
+        <v>20</v>
+      </c>
+      <c r="E388" s="1">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" s="4">
+        <v>387</v>
+      </c>
+      <c r="B389" s="3">
+        <v>1.4999999999999999E+90</v>
+      </c>
+      <c r="C389" t="s">
+        <v>392</v>
+      </c>
+      <c r="D389" s="1">
+        <v>20</v>
+      </c>
+      <c r="E389" s="1">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" s="4">
+        <v>388</v>
+      </c>
+      <c r="B390" s="3">
+        <v>1.9999999999999999E+90</v>
+      </c>
+      <c r="C390" t="s">
+        <v>393</v>
+      </c>
+      <c r="D390" s="1">
+        <v>20</v>
+      </c>
+      <c r="E390" s="1">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" s="4">
+        <v>389</v>
+      </c>
+      <c r="B391" s="3">
+        <v>2.5000000000000002E+90</v>
+      </c>
+      <c r="C391" t="s">
+        <v>394</v>
+      </c>
+      <c r="D391" s="1">
+        <v>20</v>
+      </c>
+      <c r="E391" s="1">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" s="4">
+        <v>390</v>
+      </c>
+      <c r="B392" s="3">
+        <v>2.9999999999999998E+90</v>
+      </c>
+      <c r="C392" t="s">
+        <v>395</v>
+      </c>
+      <c r="D392" s="1">
+        <v>20</v>
+      </c>
+      <c r="E392" s="1">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" s="4">
+        <v>391</v>
+      </c>
+      <c r="B393" s="3">
+        <v>3.9999999999999999E+90</v>
+      </c>
+      <c r="C393" t="s">
+        <v>396</v>
+      </c>
+      <c r="D393" s="1">
+        <v>20</v>
+      </c>
+      <c r="E393" s="1">
+        <v>1960</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
